--- a/Projects/SANOFIAU/Data/Template.xlsx
+++ b/Projects/SANOFIAU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,22 +17,24 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$1:$G$97</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$44</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -530,7 +532,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="190">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1100,213 +1102,6 @@
     <t xml:space="preserve">CHCANZCDLP18101033</t>
   </si>
   <si>
-    <t xml:space="preserve">TELFAST 180MG X 70 TABS - AU,TELFAST 180MG X 10 TABS - AU,TELFAST 120MG X 30 TABS - AU,TELFAST 180MG X 30 TABS - AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9319733002337,9321547136023,9321547144110,9321547146213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELFAST 180MG X 30 TABS - AU,TELFAST 180MG X 10 TABS - AU,TELFAST 180MG X 50 TABS - AU,TELFAST 180MG TB BL 6X10 AU </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9321547146213,9321547136023,9319733002290,9319733003044</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETADINE SORE THROAT GARGLE 15 ML,BETADINE READY TO USE 120ML GARGLE,BETADINE ANAESTHETIC BERRY 36 ,BETADINE LOZENGES HONEY &amp; LEMON 16,BETADINE LOZENGES HONEY &amp; LEMON 36,BETADINE ANAESTHETIC HONEY &amp; LEMON 36 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300655056812,9300655122548,9300655603023,9319733003273,9319733003280,9319733003495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETADINE SORE THROAT GARGLE 15 ML,BETADINE READY TO USE 120ML GARGLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300655056812,9300655122548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETADINE ANAESTHETIC BERRY 16,BETADINE ANAESTHETIC HONEY &amp; LEMON 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300655603016,9319733003488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISOLVON CHESTY FORTE TABLETS 8MG 50,BISOLVON CHESTY FORTE TABLETS 8MG 100,BISOLVON CHESTY FORTE LIQUID 8MG/5ML 200ML,BISOLVON CHESTY LIQUID 4MG/5ML 250ML,BISOLVON PHOLCODINE DRY FORTE 200ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300005,9310717300012,9310717300029,9310717300142,9310717300395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISOLVON CHESTY FORTE LIQUID 8MG/5ML 200ML,BISOLVON PHOLCODINE DRY FORTE 200ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300029,9310717300395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DULCOLAX TABLETS 5MG 50,DULCOLAX TABLETS 5MG 200,DULCOLAX TABLETS 5MG 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300234,9310717300241,9310717300258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DULCOLAX TABLETS 5MG 200,DULCOLAX TABLETS 5MG 50,DULCOLAX TABLETS 5MG 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300241,9310717300234,9310717300258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVS Once Daily Men's Multi Capsules Value Pack 100,CVS Once Daily Women's Multi Capsules Value Pack 100,CVS Once Daily 50+ Multi Capsules Value Pack 100,CVS Once Daily Women's Multi + Energy Capsules 50,CVS Once Daily Men's Multi + Performance Capsules 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300705605618,9300705605625,9300705605632,9300705605687,9300705605670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NATURES OWN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO B12 1000mcg (120),NO Ultra B 150 Forte Tablets 60,NO Vitamin B1 250mg Tablets 75,NO Super B Complex Tablets 75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090018834,9316090019084,9316090019107,9316090019169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVS Sugarless C 500mg Orange Flavour Tablets Value Pack 300,CVS MEGA C 1000mg Orange Flavour Tablets Value Pack 60,CVS Echinacea 5000mg Capsules 60,CVS Echinacea, Garlic, Zinc &amp; C Tablets Value Pack 180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300705032308,9300705601788,9300705602648,9300705604826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVS Sugarless C 500mg Orange Flavour Tablets Value Pack 300,CVS MEGA C 1000mg Orange Flavour Tablets Value Pack 60,CVS Echinacea, Garlic, Zinc &amp; C Tablets 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300705032308,9300705601788,9300705031455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Glucosamine 1500 Tablets 250,NO Magnesium Chelate 500mg Capsules 250,NO Glucosamine 1500 with Chondroitin Tablets 180 (was product code 2410 Complete Joint Health Tablets 180),NO Glucosamine Sulfate 1500 Tablets 200,NO Glucosamine 1500 with Chondroitin Tablets 160,NO Bio-Curcumin 550mg Capsules 60,NO Glucosamine &amp; Chondroitin Advanced Tablets 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090015994,9316090016878,9316090017721,9316090019190,9316090019213,9316090019220,9316090019237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Glucosamine Sulfate 1500 Tablets 200,NO Glucosamine 1500 with Chondroitin Tablets 100,NO Glucosamine &amp; Chondroitin Advanced Tablets 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090019190,9316090019206,9316090019237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSTELIN VITAMIN D X 60 CAPS,OSTELIN VITAMIN D X 130 CAPS,OSTELIN VIT D &amp; CALCIUM X 130 TABS,OSTELIN VITAMIN D 1000IU KIDS LIQUID 20ml ,OSTELIN VIT D 1000iu 300,OSTELIN CALCIUM+VIT D 300,OSTELIN CALDK2 x 60 TABS,OSTELIN VIT D &amp; CALCIUM KIDS CHEWABLE X 90 (NEW)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090500100,9316090500209,9316090500506,9316090502104,9316090502906,9316090503002,9316090504306,9316090505105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSTELIN VITAMIN D X 60 CAPS,OSTELIN VITAMIN D X 130 CAPS,OSTELIN VITAMIN D X 250 CAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090500100,9316090500209,9316090500308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSTELIN VIT D &amp; CALCIUM X 130 TABS,OSTELIN VIT D &amp; CALCIUM X 250 TABS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090500506,9316090500605</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO ODOURLESS Fish Oil 2000mg Capsule 200,NO ODOURLESS Fish Oil 1500mg Combination Pack (400+200 capsules),NO Triple Concentrated Fish Oil Capsules 90,NO ODOURLESS Fish Oil 1000mg Combination Pack (400+200 capsules) (was1752)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090015284,9316090016236,9316090017004,9316090017707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUSCOPAN TABLETS 10MG 20,BUSCOPAN FORTE TABLETS 20MG 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717001865,9310717300173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUSCOPAN FORTE TABLETS 20MG 10,BUSCOPAN TABLETS 10MG 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300173,9310717001865</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Complete Sleep™ Advanced Tablets 60,NO SleepEzy Capsules 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090018759,9316090293606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Complete Sleep™ Advanced Tablets 30,NO Complete Sleep™ Advanced Tablets 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090016175,9316090018759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETADINE LOZENGES HONEY &amp; LEMON 16,BETADINE LOZENGES HONEY &amp; LEMON 36,BETADINE ANAESTHETIC HONEY &amp; LEMON 36 ,BISOLVON CHESTY FORTE TABLETS 8MG 50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9319733003280,9319733003495,9310717300005,9310717300012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BETADINE LOZENGES HONEY &amp; LEMON 16,BETADINE ANAESTHETIC BERRY 16,BETADINE ANAESTHETIC HONEY &amp; LEMON 16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9319733003273,9300655603016,9319733003488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BISOLVON CHESTY FORTE LIQUID 8MG/5ML 200ML,BISOLVON CHESTY FORTE TABLETS 8MG 100,BISOLVON CHESTY FORTE TABLETS 8MG 50,BISOLVON PHOLCODINE DRY FORTE 200ML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9310717300029,9310717300012,9310717300005,9310717300395</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OSTELIN VIT D 1000iu 300,OSTELIN CALCIUM+VIT D 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090502906,9316090503002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CVS Once Daily Men's Multi Capsules Value Pack 100,CVS Once Daily Women's Multi Capsules Value Pack 100,CVS Once Daily 50+ Multi Capsules Value Pack 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9300705605618,9300705605625,9300705605632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Vitamin B12 1000mcg Tablets 60,BETADINE ANTISEPTIC LIQUID 15ML RET,BETADINE ANTISEPTIC OINTMENT 25G RET,CVS Sugarless C 500mg Orange Flavour Tablets Value Pack 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090023906,9300655003298,9300655059240,9300705032308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Super B Complex Tablets 75,NO Vitamin B3 500mg Tablets 60,NO Vitamin B12 1000mcg Tablets 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090019169,9316090019121,9316090023906</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Glucosamine Sulfate 1500 Tablets 200,NO Glucosamine 1500 with Chondroitin Tablets 100,NO Glucosamine 1500 with Chondroitin Tablets 160,NO Glucosamine &amp; Chondroitin Advanced Tablets 120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090019190,9316090019206,9316090019213,9316090019237</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO ODOURLESS Fish Oil 2000mg Capsule 200,NO ODOURLESS Fish Oil 1000mg Capsules 400,NO Triple Concentrated Fish Oil Capsules 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090015284,9316090060901,9316090017004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO Complete Sleep™ Advanced Tablets 30,NO Complete Sleep™ Advanced Tablets 60,NO SleepEzy Capsules 100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090016175,9316090018759,9316090293606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO ODOURLESS Fish Oil 2000mg Capsule 200,NO ODOURLESS Fish Oil 1500mg Combination Pack (400+200 capsules),NO Triple Concentrated Fish Oil Capsules 90,NO ODOURLESS Fish Oil 1000mg Combination Pack (400+200 capsules) (was1752),BUSCOPAN TABLETS 10MG 20,BUSCOPAN FORTE TABLETS 20MG 10,MERSYNOFEN TABLETS 12'S,NO Complete Sleep™ Advanced Tablets 60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9316090015284,9316090016236,9316090017004,9316090017707,9310717001865,9310717300173,9319733003761,9316090018759</t>
-  </si>
-  <si>
     <t xml:space="preserve">COUGH COLD</t>
   </si>
   <si>
@@ -1733,7 +1528,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2078,23 +1873,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2102,11 +1881,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2114,24 +1889,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2272,11 +2031,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -2542,10 +2301,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="65.663967611336"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="66.1983805668016"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="12.5344129554656"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="12.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="12" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="9.10526315789474"/>
@@ -5375,13 +5134,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="58.3805668016194"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="41" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="58.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="41" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="42" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="16.7125506072875"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="16.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="42" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -16243,11 +16002,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="60" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="7.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="60" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="60" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="5.1417004048583"/>
@@ -16491,23 +16250,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:104"/>
+  <dimension ref="1:62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="82" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="82" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="82" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="82" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="82" width="66.0931174089069"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="82" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="82" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="82" width="66.6275303643725"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="82" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="82" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="10.1619433198381"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="83" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -17568,324 +17327,1127 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" s="91" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" s="88" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="90" t="n">
-        <v>0</v>
-      </c>
+    <row r="3" s="87" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
     </row>
     <row r="4" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="D4" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="F4" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
     </row>
     <row r="5" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
     </row>
     <row r="6" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="86" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
     </row>
     <row r="7" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="92" t="s">
-        <v>195</v>
-      </c>
-      <c r="F7" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
     </row>
     <row r="8" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="86" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
     </row>
     <row r="9" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="86" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="88"/>
     </row>
     <row r="10" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="86" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
     </row>
     <row r="11" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>202</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" s="90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+    </row>
+    <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
+      <c r="R12" s="0"/>
+      <c r="S12" s="0"/>
+      <c r="T12" s="0"/>
+      <c r="U12" s="0"/>
+      <c r="V12" s="0"/>
+      <c r="W12" s="0"/>
+      <c r="X12" s="0"/>
+      <c r="Y12" s="0"/>
+      <c r="Z12" s="0"/>
+      <c r="AA12" s="0"/>
+      <c r="AB12" s="0"/>
+      <c r="AC12" s="0"/>
+      <c r="AD12" s="0"/>
+      <c r="AE12" s="0"/>
+      <c r="AF12" s="0"/>
+      <c r="AG12" s="0"/>
+      <c r="AH12" s="0"/>
+      <c r="AI12" s="0"/>
+      <c r="AJ12" s="0"/>
+      <c r="AK12" s="0"/>
+      <c r="AL12" s="0"/>
+      <c r="AM12" s="0"/>
+      <c r="AN12" s="0"/>
+      <c r="AO12" s="0"/>
+      <c r="AP12" s="0"/>
+      <c r="AQ12" s="0"/>
+      <c r="AR12" s="0"/>
+      <c r="AS12" s="0"/>
+      <c r="AT12" s="0"/>
+      <c r="AU12" s="0"/>
+      <c r="AV12" s="0"/>
+      <c r="AW12" s="0"/>
+      <c r="AX12" s="0"/>
+      <c r="AY12" s="0"/>
+      <c r="AZ12" s="0"/>
+      <c r="BA12" s="0"/>
+      <c r="BB12" s="0"/>
+      <c r="BC12" s="0"/>
+      <c r="BD12" s="0"/>
+      <c r="BE12" s="0"/>
+      <c r="BF12" s="0"/>
+      <c r="BG12" s="0"/>
+      <c r="BH12" s="0"/>
+      <c r="BI12" s="0"/>
+      <c r="BJ12" s="0"/>
+      <c r="BK12" s="0"/>
+      <c r="BL12" s="0"/>
+      <c r="BM12" s="0"/>
+      <c r="BN12" s="0"/>
+      <c r="BO12" s="0"/>
+      <c r="BP12" s="0"/>
+      <c r="BQ12" s="0"/>
+      <c r="BR12" s="0"/>
+      <c r="BS12" s="0"/>
+      <c r="BT12" s="0"/>
+      <c r="BU12" s="0"/>
+      <c r="BV12" s="0"/>
+      <c r="BW12" s="0"/>
+      <c r="BX12" s="0"/>
+      <c r="BY12" s="0"/>
+      <c r="BZ12" s="0"/>
+      <c r="CA12" s="0"/>
+      <c r="CB12" s="0"/>
+      <c r="CC12" s="0"/>
+      <c r="CD12" s="0"/>
+      <c r="CE12" s="0"/>
+      <c r="CF12" s="0"/>
+      <c r="CG12" s="0"/>
+      <c r="CH12" s="0"/>
+      <c r="CI12" s="0"/>
+      <c r="CJ12" s="0"/>
+      <c r="CK12" s="0"/>
+      <c r="CL12" s="0"/>
+      <c r="CM12" s="0"/>
+      <c r="CN12" s="0"/>
+      <c r="CO12" s="0"/>
+      <c r="CP12" s="0"/>
+      <c r="CQ12" s="0"/>
+      <c r="CR12" s="0"/>
+      <c r="CS12" s="0"/>
+      <c r="CT12" s="0"/>
+      <c r="CU12" s="0"/>
+      <c r="CV12" s="0"/>
+      <c r="CW12" s="0"/>
+      <c r="CX12" s="0"/>
+      <c r="CY12" s="0"/>
+      <c r="CZ12" s="0"/>
+      <c r="DA12" s="0"/>
+      <c r="DB12" s="0"/>
+      <c r="DC12" s="0"/>
+      <c r="DD12" s="0"/>
+      <c r="DE12" s="0"/>
+      <c r="DF12" s="0"/>
+      <c r="DG12" s="0"/>
+      <c r="DH12" s="0"/>
+      <c r="DI12" s="0"/>
+      <c r="DJ12" s="0"/>
+      <c r="DK12" s="0"/>
+      <c r="DL12" s="0"/>
+      <c r="DM12" s="0"/>
+      <c r="DN12" s="0"/>
+      <c r="DO12" s="0"/>
+      <c r="DP12" s="0"/>
+      <c r="DQ12" s="0"/>
+      <c r="DR12" s="0"/>
+      <c r="DS12" s="0"/>
+      <c r="DT12" s="0"/>
+      <c r="DU12" s="0"/>
+      <c r="DV12" s="0"/>
+      <c r="DW12" s="0"/>
+      <c r="DX12" s="0"/>
+      <c r="DY12" s="0"/>
+      <c r="DZ12" s="0"/>
+      <c r="EA12" s="0"/>
+      <c r="EB12" s="0"/>
+      <c r="EC12" s="0"/>
+      <c r="ED12" s="0"/>
+      <c r="EE12" s="0"/>
+      <c r="EF12" s="0"/>
+      <c r="EG12" s="0"/>
+      <c r="EH12" s="0"/>
+      <c r="EI12" s="0"/>
+      <c r="EJ12" s="0"/>
+      <c r="EK12" s="0"/>
+      <c r="EL12" s="0"/>
+      <c r="EM12" s="0"/>
+      <c r="EN12" s="0"/>
+      <c r="EO12" s="0"/>
+      <c r="EP12" s="0"/>
+      <c r="EQ12" s="0"/>
+      <c r="ER12" s="0"/>
+      <c r="ES12" s="0"/>
+      <c r="ET12" s="0"/>
+      <c r="EU12" s="0"/>
+      <c r="EV12" s="0"/>
+      <c r="EW12" s="0"/>
+      <c r="EX12" s="0"/>
+      <c r="EY12" s="0"/>
+      <c r="EZ12" s="0"/>
+      <c r="FA12" s="0"/>
+      <c r="FB12" s="0"/>
+      <c r="FC12" s="0"/>
+      <c r="FD12" s="0"/>
+      <c r="FE12" s="0"/>
+      <c r="FF12" s="0"/>
+      <c r="FG12" s="0"/>
+      <c r="FH12" s="0"/>
+      <c r="FI12" s="0"/>
+      <c r="FJ12" s="0"/>
+      <c r="FK12" s="0"/>
+      <c r="FL12" s="0"/>
+      <c r="FM12" s="0"/>
+      <c r="FN12" s="0"/>
+      <c r="FO12" s="0"/>
+      <c r="FP12" s="0"/>
+      <c r="FQ12" s="0"/>
+      <c r="FR12" s="0"/>
+      <c r="FS12" s="0"/>
+      <c r="FT12" s="0"/>
+      <c r="FU12" s="0"/>
+      <c r="FV12" s="0"/>
+      <c r="FW12" s="0"/>
+      <c r="FX12" s="0"/>
+      <c r="FY12" s="0"/>
+      <c r="FZ12" s="0"/>
+      <c r="GA12" s="0"/>
+      <c r="GB12" s="0"/>
+      <c r="GC12" s="0"/>
+      <c r="GD12" s="0"/>
+      <c r="GE12" s="0"/>
+      <c r="GF12" s="0"/>
+      <c r="GG12" s="0"/>
+      <c r="GH12" s="0"/>
+      <c r="GI12" s="0"/>
+      <c r="GJ12" s="0"/>
+      <c r="GK12" s="0"/>
+      <c r="GL12" s="0"/>
+      <c r="GM12" s="0"/>
+      <c r="GN12" s="0"/>
+      <c r="GO12" s="0"/>
+      <c r="GP12" s="0"/>
+      <c r="GQ12" s="0"/>
+      <c r="GR12" s="0"/>
+      <c r="GS12" s="0"/>
+      <c r="GT12" s="0"/>
+      <c r="GU12" s="0"/>
+      <c r="GV12" s="0"/>
+      <c r="GW12" s="0"/>
+      <c r="GX12" s="0"/>
+      <c r="GY12" s="0"/>
+      <c r="GZ12" s="0"/>
+      <c r="HA12" s="0"/>
+      <c r="HB12" s="0"/>
+      <c r="HC12" s="0"/>
+      <c r="HD12" s="0"/>
+      <c r="HE12" s="0"/>
+      <c r="HF12" s="0"/>
+      <c r="HG12" s="0"/>
+      <c r="HH12" s="0"/>
+      <c r="HI12" s="0"/>
+      <c r="HJ12" s="0"/>
+      <c r="HK12" s="0"/>
+      <c r="HL12" s="0"/>
+      <c r="HM12" s="0"/>
+      <c r="HN12" s="0"/>
+      <c r="HO12" s="0"/>
+      <c r="HP12" s="0"/>
+      <c r="HQ12" s="0"/>
+      <c r="HR12" s="0"/>
+      <c r="HS12" s="0"/>
+      <c r="HT12" s="0"/>
+      <c r="HU12" s="0"/>
+      <c r="HV12" s="0"/>
+      <c r="HW12" s="0"/>
+      <c r="HX12" s="0"/>
+      <c r="HY12" s="0"/>
+      <c r="HZ12" s="0"/>
+      <c r="IA12" s="0"/>
+      <c r="IB12" s="0"/>
+      <c r="IC12" s="0"/>
+      <c r="ID12" s="0"/>
+      <c r="IE12" s="0"/>
+      <c r="IF12" s="0"/>
+      <c r="IG12" s="0"/>
+      <c r="IH12" s="0"/>
+      <c r="II12" s="0"/>
+      <c r="IJ12" s="0"/>
+      <c r="IK12" s="0"/>
+      <c r="IL12" s="0"/>
+      <c r="IM12" s="0"/>
+      <c r="IN12" s="0"/>
+      <c r="IO12" s="0"/>
+      <c r="IP12" s="0"/>
+      <c r="IQ12" s="0"/>
+      <c r="IR12" s="0"/>
+      <c r="IS12" s="0"/>
+      <c r="IT12" s="0"/>
+      <c r="IU12" s="0"/>
+      <c r="IV12" s="0"/>
+      <c r="IW12" s="0"/>
+      <c r="IX12" s="0"/>
+      <c r="IY12" s="0"/>
+      <c r="IZ12" s="0"/>
+      <c r="JA12" s="0"/>
+      <c r="JB12" s="0"/>
+      <c r="JC12" s="0"/>
+      <c r="JD12" s="0"/>
+      <c r="JE12" s="0"/>
+      <c r="JF12" s="0"/>
+      <c r="JG12" s="0"/>
+      <c r="JH12" s="0"/>
+      <c r="JI12" s="0"/>
+      <c r="JJ12" s="0"/>
+      <c r="JK12" s="0"/>
+      <c r="JL12" s="0"/>
+      <c r="JM12" s="0"/>
+      <c r="JN12" s="0"/>
+      <c r="JO12" s="0"/>
+      <c r="JP12" s="0"/>
+      <c r="JQ12" s="0"/>
+      <c r="JR12" s="0"/>
+      <c r="JS12" s="0"/>
+      <c r="JT12" s="0"/>
+      <c r="JU12" s="0"/>
+      <c r="JV12" s="0"/>
+      <c r="JW12" s="0"/>
+      <c r="JX12" s="0"/>
+      <c r="JY12" s="0"/>
+      <c r="JZ12" s="0"/>
+      <c r="KA12" s="0"/>
+      <c r="KB12" s="0"/>
+      <c r="KC12" s="0"/>
+      <c r="KD12" s="0"/>
+      <c r="KE12" s="0"/>
+      <c r="KF12" s="0"/>
+      <c r="KG12" s="0"/>
+      <c r="KH12" s="0"/>
+      <c r="KI12" s="0"/>
+      <c r="KJ12" s="0"/>
+      <c r="KK12" s="0"/>
+      <c r="KL12" s="0"/>
+      <c r="KM12" s="0"/>
+      <c r="KN12" s="0"/>
+      <c r="KO12" s="0"/>
+      <c r="KP12" s="0"/>
+      <c r="KQ12" s="0"/>
+      <c r="KR12" s="0"/>
+      <c r="KS12" s="0"/>
+      <c r="KT12" s="0"/>
+      <c r="KU12" s="0"/>
+      <c r="KV12" s="0"/>
+      <c r="KW12" s="0"/>
+      <c r="KX12" s="0"/>
+      <c r="KY12" s="0"/>
+      <c r="KZ12" s="0"/>
+      <c r="LA12" s="0"/>
+      <c r="LB12" s="0"/>
+      <c r="LC12" s="0"/>
+      <c r="LD12" s="0"/>
+      <c r="LE12" s="0"/>
+      <c r="LF12" s="0"/>
+      <c r="LG12" s="0"/>
+      <c r="LH12" s="0"/>
+      <c r="LI12" s="0"/>
+      <c r="LJ12" s="0"/>
+      <c r="LK12" s="0"/>
+      <c r="LL12" s="0"/>
+      <c r="LM12" s="0"/>
+      <c r="LN12" s="0"/>
+      <c r="LO12" s="0"/>
+      <c r="LP12" s="0"/>
+      <c r="LQ12" s="0"/>
+      <c r="LR12" s="0"/>
+      <c r="LS12" s="0"/>
+      <c r="LT12" s="0"/>
+      <c r="LU12" s="0"/>
+      <c r="LV12" s="0"/>
+      <c r="LW12" s="0"/>
+      <c r="LX12" s="0"/>
+      <c r="LY12" s="0"/>
+      <c r="LZ12" s="0"/>
+      <c r="MA12" s="0"/>
+      <c r="MB12" s="0"/>
+      <c r="MC12" s="0"/>
+      <c r="MD12" s="0"/>
+      <c r="ME12" s="0"/>
+      <c r="MF12" s="0"/>
+      <c r="MG12" s="0"/>
+      <c r="MH12" s="0"/>
+      <c r="MI12" s="0"/>
+      <c r="MJ12" s="0"/>
+      <c r="MK12" s="0"/>
+      <c r="ML12" s="0"/>
+      <c r="MM12" s="0"/>
+      <c r="MN12" s="0"/>
+      <c r="MO12" s="0"/>
+      <c r="MP12" s="0"/>
+      <c r="MQ12" s="0"/>
+      <c r="MR12" s="0"/>
+      <c r="MS12" s="0"/>
+      <c r="MT12" s="0"/>
+      <c r="MU12" s="0"/>
+      <c r="MV12" s="0"/>
+      <c r="MW12" s="0"/>
+      <c r="MX12" s="0"/>
+      <c r="MY12" s="0"/>
+      <c r="MZ12" s="0"/>
+      <c r="NA12" s="0"/>
+      <c r="NB12" s="0"/>
+      <c r="NC12" s="0"/>
+      <c r="ND12" s="0"/>
+      <c r="NE12" s="0"/>
+      <c r="NF12" s="0"/>
+      <c r="NG12" s="0"/>
+      <c r="NH12" s="0"/>
+      <c r="NI12" s="0"/>
+      <c r="NJ12" s="0"/>
+      <c r="NK12" s="0"/>
+      <c r="NL12" s="0"/>
+      <c r="NM12" s="0"/>
+      <c r="NN12" s="0"/>
+      <c r="NO12" s="0"/>
+      <c r="NP12" s="0"/>
+      <c r="NQ12" s="0"/>
+      <c r="NR12" s="0"/>
+      <c r="NS12" s="0"/>
+      <c r="NT12" s="0"/>
+      <c r="NU12" s="0"/>
+      <c r="NV12" s="0"/>
+      <c r="NW12" s="0"/>
+      <c r="NX12" s="0"/>
+      <c r="NY12" s="0"/>
+      <c r="NZ12" s="0"/>
+      <c r="OA12" s="0"/>
+      <c r="OB12" s="0"/>
+      <c r="OC12" s="0"/>
+      <c r="OD12" s="0"/>
+      <c r="OE12" s="0"/>
+      <c r="OF12" s="0"/>
+      <c r="OG12" s="0"/>
+      <c r="OH12" s="0"/>
+      <c r="OI12" s="0"/>
+      <c r="OJ12" s="0"/>
+      <c r="OK12" s="0"/>
+      <c r="OL12" s="0"/>
+      <c r="OM12" s="0"/>
+      <c r="ON12" s="0"/>
+      <c r="OO12" s="0"/>
+      <c r="OP12" s="0"/>
+      <c r="OQ12" s="0"/>
+      <c r="OR12" s="0"/>
+      <c r="OS12" s="0"/>
+      <c r="OT12" s="0"/>
+      <c r="OU12" s="0"/>
+      <c r="OV12" s="0"/>
+      <c r="OW12" s="0"/>
+      <c r="OX12" s="0"/>
+      <c r="OY12" s="0"/>
+      <c r="OZ12" s="0"/>
+      <c r="PA12" s="0"/>
+      <c r="PB12" s="0"/>
+      <c r="PC12" s="0"/>
+      <c r="PD12" s="0"/>
+      <c r="PE12" s="0"/>
+      <c r="PF12" s="0"/>
+      <c r="PG12" s="0"/>
+      <c r="PH12" s="0"/>
+      <c r="PI12" s="0"/>
+      <c r="PJ12" s="0"/>
+      <c r="PK12" s="0"/>
+      <c r="PL12" s="0"/>
+      <c r="PM12" s="0"/>
+      <c r="PN12" s="0"/>
+      <c r="PO12" s="0"/>
+      <c r="PP12" s="0"/>
+      <c r="PQ12" s="0"/>
+      <c r="PR12" s="0"/>
+      <c r="PS12" s="0"/>
+      <c r="PT12" s="0"/>
+      <c r="PU12" s="0"/>
+      <c r="PV12" s="0"/>
+      <c r="PW12" s="0"/>
+      <c r="PX12" s="0"/>
+      <c r="PY12" s="0"/>
+      <c r="PZ12" s="0"/>
+      <c r="QA12" s="0"/>
+      <c r="QB12" s="0"/>
+      <c r="QC12" s="0"/>
+      <c r="QD12" s="0"/>
+      <c r="QE12" s="0"/>
+      <c r="QF12" s="0"/>
+      <c r="QG12" s="0"/>
+      <c r="QH12" s="0"/>
+      <c r="QI12" s="0"/>
+      <c r="QJ12" s="0"/>
+      <c r="QK12" s="0"/>
+      <c r="QL12" s="0"/>
+      <c r="QM12" s="0"/>
+      <c r="QN12" s="0"/>
+      <c r="QO12" s="0"/>
+      <c r="QP12" s="0"/>
+      <c r="QQ12" s="0"/>
+      <c r="QR12" s="0"/>
+      <c r="QS12" s="0"/>
+      <c r="QT12" s="0"/>
+      <c r="QU12" s="0"/>
+      <c r="QV12" s="0"/>
+      <c r="QW12" s="0"/>
+      <c r="QX12" s="0"/>
+      <c r="QY12" s="0"/>
+      <c r="QZ12" s="0"/>
+      <c r="RA12" s="0"/>
+      <c r="RB12" s="0"/>
+      <c r="RC12" s="0"/>
+      <c r="RD12" s="0"/>
+      <c r="RE12" s="0"/>
+      <c r="RF12" s="0"/>
+      <c r="RG12" s="0"/>
+      <c r="RH12" s="0"/>
+      <c r="RI12" s="0"/>
+      <c r="RJ12" s="0"/>
+      <c r="RK12" s="0"/>
+      <c r="RL12" s="0"/>
+      <c r="RM12" s="0"/>
+      <c r="RN12" s="0"/>
+      <c r="RO12" s="0"/>
+      <c r="RP12" s="0"/>
+      <c r="RQ12" s="0"/>
+      <c r="RR12" s="0"/>
+      <c r="RS12" s="0"/>
+      <c r="RT12" s="0"/>
+      <c r="RU12" s="0"/>
+      <c r="RV12" s="0"/>
+      <c r="RW12" s="0"/>
+      <c r="RX12" s="0"/>
+      <c r="RY12" s="0"/>
+      <c r="RZ12" s="0"/>
+      <c r="SA12" s="0"/>
+      <c r="SB12" s="0"/>
+      <c r="SC12" s="0"/>
+      <c r="SD12" s="0"/>
+      <c r="SE12" s="0"/>
+      <c r="SF12" s="0"/>
+      <c r="SG12" s="0"/>
+      <c r="SH12" s="0"/>
+      <c r="SI12" s="0"/>
+      <c r="SJ12" s="0"/>
+      <c r="SK12" s="0"/>
+      <c r="SL12" s="0"/>
+      <c r="SM12" s="0"/>
+      <c r="SN12" s="0"/>
+      <c r="SO12" s="0"/>
+      <c r="SP12" s="0"/>
+      <c r="SQ12" s="0"/>
+      <c r="SR12" s="0"/>
+      <c r="SS12" s="0"/>
+      <c r="ST12" s="0"/>
+      <c r="SU12" s="0"/>
+      <c r="SV12" s="0"/>
+      <c r="SW12" s="0"/>
+      <c r="SX12" s="0"/>
+      <c r="SY12" s="0"/>
+      <c r="SZ12" s="0"/>
+      <c r="TA12" s="0"/>
+      <c r="TB12" s="0"/>
+      <c r="TC12" s="0"/>
+      <c r="TD12" s="0"/>
+      <c r="TE12" s="0"/>
+      <c r="TF12" s="0"/>
+      <c r="TG12" s="0"/>
+      <c r="TH12" s="0"/>
+      <c r="TI12" s="0"/>
+      <c r="TJ12" s="0"/>
+      <c r="TK12" s="0"/>
+      <c r="TL12" s="0"/>
+      <c r="TM12" s="0"/>
+      <c r="TN12" s="0"/>
+      <c r="TO12" s="0"/>
+      <c r="TP12" s="0"/>
+      <c r="TQ12" s="0"/>
+      <c r="TR12" s="0"/>
+      <c r="TS12" s="0"/>
+      <c r="TT12" s="0"/>
+      <c r="TU12" s="0"/>
+      <c r="TV12" s="0"/>
+      <c r="TW12" s="0"/>
+      <c r="TX12" s="0"/>
+      <c r="TY12" s="0"/>
+      <c r="TZ12" s="0"/>
+      <c r="UA12" s="0"/>
+      <c r="UB12" s="0"/>
+      <c r="UC12" s="0"/>
+      <c r="UD12" s="0"/>
+      <c r="UE12" s="0"/>
+      <c r="UF12" s="0"/>
+      <c r="UG12" s="0"/>
+      <c r="UH12" s="0"/>
+      <c r="UI12" s="0"/>
+      <c r="UJ12" s="0"/>
+      <c r="UK12" s="0"/>
+      <c r="UL12" s="0"/>
+      <c r="UM12" s="0"/>
+      <c r="UN12" s="0"/>
+      <c r="UO12" s="0"/>
+      <c r="UP12" s="0"/>
+      <c r="UQ12" s="0"/>
+      <c r="UR12" s="0"/>
+      <c r="US12" s="0"/>
+      <c r="UT12" s="0"/>
+      <c r="UU12" s="0"/>
+      <c r="UV12" s="0"/>
+      <c r="UW12" s="0"/>
+      <c r="UX12" s="0"/>
+      <c r="UY12" s="0"/>
+      <c r="UZ12" s="0"/>
+      <c r="VA12" s="0"/>
+      <c r="VB12" s="0"/>
+      <c r="VC12" s="0"/>
+      <c r="VD12" s="0"/>
+      <c r="VE12" s="0"/>
+      <c r="VF12" s="0"/>
+      <c r="VG12" s="0"/>
+      <c r="VH12" s="0"/>
+      <c r="VI12" s="0"/>
+      <c r="VJ12" s="0"/>
+      <c r="VK12" s="0"/>
+      <c r="VL12" s="0"/>
+      <c r="VM12" s="0"/>
+      <c r="VN12" s="0"/>
+      <c r="VO12" s="0"/>
+      <c r="VP12" s="0"/>
+      <c r="VQ12" s="0"/>
+      <c r="VR12" s="0"/>
+      <c r="VS12" s="0"/>
+      <c r="VT12" s="0"/>
+      <c r="VU12" s="0"/>
+      <c r="VV12" s="0"/>
+      <c r="VW12" s="0"/>
+      <c r="VX12" s="0"/>
+      <c r="VY12" s="0"/>
+      <c r="VZ12" s="0"/>
+      <c r="WA12" s="0"/>
+      <c r="WB12" s="0"/>
+      <c r="WC12" s="0"/>
+      <c r="WD12" s="0"/>
+      <c r="WE12" s="0"/>
+      <c r="WF12" s="0"/>
+      <c r="WG12" s="0"/>
+      <c r="WH12" s="0"/>
+      <c r="WI12" s="0"/>
+      <c r="WJ12" s="0"/>
+      <c r="WK12" s="0"/>
+      <c r="WL12" s="0"/>
+      <c r="WM12" s="0"/>
+      <c r="WN12" s="0"/>
+      <c r="WO12" s="0"/>
+      <c r="WP12" s="0"/>
+      <c r="WQ12" s="0"/>
+      <c r="WR12" s="0"/>
+      <c r="WS12" s="0"/>
+      <c r="WT12" s="0"/>
+      <c r="WU12" s="0"/>
+      <c r="WV12" s="0"/>
+      <c r="WW12" s="0"/>
+      <c r="WX12" s="0"/>
+      <c r="WY12" s="0"/>
+      <c r="WZ12" s="0"/>
+      <c r="XA12" s="0"/>
+      <c r="XB12" s="0"/>
+      <c r="XC12" s="0"/>
+      <c r="XD12" s="0"/>
+      <c r="XE12" s="0"/>
+      <c r="XF12" s="0"/>
+      <c r="XG12" s="0"/>
+      <c r="XH12" s="0"/>
+      <c r="XI12" s="0"/>
+      <c r="XJ12" s="0"/>
+      <c r="XK12" s="0"/>
+      <c r="XL12" s="0"/>
+      <c r="XM12" s="0"/>
+      <c r="XN12" s="0"/>
+      <c r="XO12" s="0"/>
+      <c r="XP12" s="0"/>
+      <c r="XQ12" s="0"/>
+      <c r="XR12" s="0"/>
+      <c r="XS12" s="0"/>
+      <c r="XT12" s="0"/>
+      <c r="XU12" s="0"/>
+      <c r="XV12" s="0"/>
+      <c r="XW12" s="0"/>
+      <c r="XX12" s="0"/>
+      <c r="XY12" s="0"/>
+      <c r="XZ12" s="0"/>
+      <c r="YA12" s="0"/>
+      <c r="YB12" s="0"/>
+      <c r="YC12" s="0"/>
+      <c r="YD12" s="0"/>
+      <c r="YE12" s="0"/>
+      <c r="YF12" s="0"/>
+      <c r="YG12" s="0"/>
+      <c r="YH12" s="0"/>
+      <c r="YI12" s="0"/>
+      <c r="YJ12" s="0"/>
+      <c r="YK12" s="0"/>
+      <c r="YL12" s="0"/>
+      <c r="YM12" s="0"/>
+      <c r="YN12" s="0"/>
+      <c r="YO12" s="0"/>
+      <c r="YP12" s="0"/>
+      <c r="YQ12" s="0"/>
+      <c r="YR12" s="0"/>
+      <c r="YS12" s="0"/>
+      <c r="YT12" s="0"/>
+      <c r="YU12" s="0"/>
+      <c r="YV12" s="0"/>
+      <c r="YW12" s="0"/>
+      <c r="YX12" s="0"/>
+      <c r="YY12" s="0"/>
+      <c r="YZ12" s="0"/>
+      <c r="ZA12" s="0"/>
+      <c r="ZB12" s="0"/>
+      <c r="ZC12" s="0"/>
+      <c r="ZD12" s="0"/>
+      <c r="ZE12" s="0"/>
+      <c r="ZF12" s="0"/>
+      <c r="ZG12" s="0"/>
+      <c r="ZH12" s="0"/>
+      <c r="ZI12" s="0"/>
+      <c r="ZJ12" s="0"/>
+      <c r="ZK12" s="0"/>
+      <c r="ZL12" s="0"/>
+      <c r="ZM12" s="0"/>
+      <c r="ZN12" s="0"/>
+      <c r="ZO12" s="0"/>
+      <c r="ZP12" s="0"/>
+      <c r="ZQ12" s="0"/>
+      <c r="ZR12" s="0"/>
+      <c r="ZS12" s="0"/>
+      <c r="ZT12" s="0"/>
+      <c r="ZU12" s="0"/>
+      <c r="ZV12" s="0"/>
+      <c r="ZW12" s="0"/>
+      <c r="ZX12" s="0"/>
+      <c r="ZY12" s="0"/>
+      <c r="ZZ12" s="0"/>
+      <c r="AAA12" s="0"/>
+      <c r="AAB12" s="0"/>
+      <c r="AAC12" s="0"/>
+      <c r="AAD12" s="0"/>
+      <c r="AAE12" s="0"/>
+      <c r="AAF12" s="0"/>
+      <c r="AAG12" s="0"/>
+      <c r="AAH12" s="0"/>
+      <c r="AAI12" s="0"/>
+      <c r="AAJ12" s="0"/>
+      <c r="AAK12" s="0"/>
+      <c r="AAL12" s="0"/>
+      <c r="AAM12" s="0"/>
+      <c r="AAN12" s="0"/>
+      <c r="AAO12" s="0"/>
+      <c r="AAP12" s="0"/>
+      <c r="AAQ12" s="0"/>
+      <c r="AAR12" s="0"/>
+      <c r="AAS12" s="0"/>
+      <c r="AAT12" s="0"/>
+      <c r="AAU12" s="0"/>
+      <c r="AAV12" s="0"/>
+      <c r="AAW12" s="0"/>
+      <c r="AAX12" s="0"/>
+      <c r="AAY12" s="0"/>
+      <c r="AAZ12" s="0"/>
+      <c r="ABA12" s="0"/>
+      <c r="ABB12" s="0"/>
+      <c r="ABC12" s="0"/>
+      <c r="ABD12" s="0"/>
+      <c r="ABE12" s="0"/>
+      <c r="ABF12" s="0"/>
+      <c r="ABG12" s="0"/>
+      <c r="ABH12" s="0"/>
+      <c r="ABI12" s="0"/>
+      <c r="ABJ12" s="0"/>
+      <c r="ABK12" s="0"/>
+      <c r="ABL12" s="0"/>
+      <c r="ABM12" s="0"/>
+      <c r="ABN12" s="0"/>
+      <c r="ABO12" s="0"/>
+      <c r="ABP12" s="0"/>
+      <c r="ABQ12" s="0"/>
+      <c r="ABR12" s="0"/>
+      <c r="ABS12" s="0"/>
+      <c r="ABT12" s="0"/>
+      <c r="ABU12" s="0"/>
+      <c r="ABV12" s="0"/>
+      <c r="ABW12" s="0"/>
+      <c r="ABX12" s="0"/>
+      <c r="ABY12" s="0"/>
+      <c r="ABZ12" s="0"/>
+      <c r="ACA12" s="0"/>
+      <c r="ACB12" s="0"/>
+      <c r="ACC12" s="0"/>
+      <c r="ACD12" s="0"/>
+      <c r="ACE12" s="0"/>
+      <c r="ACF12" s="0"/>
+      <c r="ACG12" s="0"/>
+      <c r="ACH12" s="0"/>
+      <c r="ACI12" s="0"/>
+      <c r="ACJ12" s="0"/>
+      <c r="ACK12" s="0"/>
+      <c r="ACL12" s="0"/>
+      <c r="ACM12" s="0"/>
+      <c r="ACN12" s="0"/>
+      <c r="ACO12" s="0"/>
+      <c r="ACP12" s="0"/>
+      <c r="ACQ12" s="0"/>
+      <c r="ACR12" s="0"/>
+      <c r="ACS12" s="0"/>
+      <c r="ACT12" s="0"/>
+      <c r="ACU12" s="0"/>
+      <c r="ACV12" s="0"/>
+      <c r="ACW12" s="0"/>
+      <c r="ACX12" s="0"/>
+      <c r="ACY12" s="0"/>
+      <c r="ACZ12" s="0"/>
+      <c r="ADA12" s="0"/>
+      <c r="ADB12" s="0"/>
+      <c r="ADC12" s="0"/>
+      <c r="ADD12" s="0"/>
+      <c r="ADE12" s="0"/>
+      <c r="ADF12" s="0"/>
+      <c r="ADG12" s="0"/>
+      <c r="ADH12" s="0"/>
+      <c r="ADI12" s="0"/>
+      <c r="ADJ12" s="0"/>
+      <c r="ADK12" s="0"/>
+      <c r="ADL12" s="0"/>
+      <c r="ADM12" s="0"/>
+      <c r="ADN12" s="0"/>
+      <c r="ADO12" s="0"/>
+      <c r="ADP12" s="0"/>
+      <c r="ADQ12" s="0"/>
+      <c r="ADR12" s="0"/>
+      <c r="ADS12" s="0"/>
+      <c r="ADT12" s="0"/>
+      <c r="ADU12" s="0"/>
+      <c r="ADV12" s="0"/>
+      <c r="ADW12" s="0"/>
+      <c r="ADX12" s="0"/>
+      <c r="ADY12" s="0"/>
+      <c r="ADZ12" s="0"/>
+      <c r="AEA12" s="0"/>
+      <c r="AEB12" s="0"/>
+      <c r="AEC12" s="0"/>
+      <c r="AED12" s="0"/>
+      <c r="AEE12" s="0"/>
+      <c r="AEF12" s="0"/>
+      <c r="AEG12" s="0"/>
+      <c r="AEH12" s="0"/>
+      <c r="AEI12" s="0"/>
+      <c r="AEJ12" s="0"/>
+      <c r="AEK12" s="0"/>
+      <c r="AEL12" s="0"/>
+      <c r="AEM12" s="0"/>
+      <c r="AEN12" s="0"/>
+      <c r="AEO12" s="0"/>
+      <c r="AEP12" s="0"/>
+      <c r="AEQ12" s="0"/>
+      <c r="AER12" s="0"/>
+      <c r="AES12" s="0"/>
+      <c r="AET12" s="0"/>
+      <c r="AEU12" s="0"/>
+      <c r="AEV12" s="0"/>
+      <c r="AEW12" s="0"/>
+      <c r="AEX12" s="0"/>
+      <c r="AEY12" s="0"/>
+      <c r="AEZ12" s="0"/>
+      <c r="AFA12" s="0"/>
+      <c r="AFB12" s="0"/>
+      <c r="AFC12" s="0"/>
+      <c r="AFD12" s="0"/>
+      <c r="AFE12" s="0"/>
+      <c r="AFF12" s="0"/>
+      <c r="AFG12" s="0"/>
+      <c r="AFH12" s="0"/>
+      <c r="AFI12" s="0"/>
+      <c r="AFJ12" s="0"/>
+      <c r="AFK12" s="0"/>
+      <c r="AFL12" s="0"/>
+      <c r="AFM12" s="0"/>
+      <c r="AFN12" s="0"/>
+      <c r="AFO12" s="0"/>
+      <c r="AFP12" s="0"/>
+      <c r="AFQ12" s="0"/>
+      <c r="AFR12" s="0"/>
+      <c r="AFS12" s="0"/>
+      <c r="AFT12" s="0"/>
+      <c r="AFU12" s="0"/>
+      <c r="AFV12" s="0"/>
+      <c r="AFW12" s="0"/>
+      <c r="AFX12" s="0"/>
+      <c r="AFY12" s="0"/>
+      <c r="AFZ12" s="0"/>
+      <c r="AGA12" s="0"/>
+      <c r="AGB12" s="0"/>
+      <c r="AGC12" s="0"/>
+      <c r="AGD12" s="0"/>
+      <c r="AGE12" s="0"/>
+      <c r="AGF12" s="0"/>
+      <c r="AGG12" s="0"/>
+      <c r="AGH12" s="0"/>
+      <c r="AGI12" s="0"/>
+      <c r="AGJ12" s="0"/>
+      <c r="AGK12" s="0"/>
+      <c r="AGL12" s="0"/>
+      <c r="AGM12" s="0"/>
+      <c r="AGN12" s="0"/>
+      <c r="AGO12" s="0"/>
+      <c r="AGP12" s="0"/>
+      <c r="AGQ12" s="0"/>
+      <c r="AGR12" s="0"/>
+      <c r="AGS12" s="0"/>
+      <c r="AGT12" s="0"/>
+      <c r="AGU12" s="0"/>
+      <c r="AGV12" s="0"/>
+      <c r="AGW12" s="0"/>
+      <c r="AGX12" s="0"/>
+      <c r="AGY12" s="0"/>
+      <c r="AGZ12" s="0"/>
+      <c r="AHA12" s="0"/>
+      <c r="AHB12" s="0"/>
+      <c r="AHC12" s="0"/>
+      <c r="AHD12" s="0"/>
+      <c r="AHE12" s="0"/>
+      <c r="AHF12" s="0"/>
+      <c r="AHG12" s="0"/>
+      <c r="AHH12" s="0"/>
+      <c r="AHI12" s="0"/>
+      <c r="AHJ12" s="0"/>
+      <c r="AHK12" s="0"/>
+      <c r="AHL12" s="0"/>
+      <c r="AHM12" s="0"/>
+      <c r="AHN12" s="0"/>
+      <c r="AHO12" s="0"/>
+      <c r="AHP12" s="0"/>
+      <c r="AHQ12" s="0"/>
+      <c r="AHR12" s="0"/>
+      <c r="AHS12" s="0"/>
+      <c r="AHT12" s="0"/>
+      <c r="AHU12" s="0"/>
+      <c r="AHV12" s="0"/>
+      <c r="AHW12" s="0"/>
+      <c r="AHX12" s="0"/>
+      <c r="AHY12" s="0"/>
+      <c r="AHZ12" s="0"/>
+      <c r="AIA12" s="0"/>
+      <c r="AIB12" s="0"/>
+      <c r="AIC12" s="0"/>
+      <c r="AID12" s="0"/>
+      <c r="AIE12" s="0"/>
+      <c r="AIF12" s="0"/>
+      <c r="AIG12" s="0"/>
+      <c r="AIH12" s="0"/>
+      <c r="AII12" s="0"/>
+      <c r="AIJ12" s="0"/>
+      <c r="AIK12" s="0"/>
+      <c r="AIL12" s="0"/>
+      <c r="AIM12" s="0"/>
+      <c r="AIN12" s="0"/>
+      <c r="AIO12" s="0"/>
+      <c r="AIP12" s="0"/>
+      <c r="AIQ12" s="0"/>
+      <c r="AIR12" s="0"/>
+      <c r="AIS12" s="0"/>
+      <c r="AIT12" s="0"/>
+      <c r="AIU12" s="0"/>
+      <c r="AIV12" s="0"/>
+      <c r="AIW12" s="0"/>
+      <c r="AIX12" s="0"/>
+      <c r="AIY12" s="0"/>
+      <c r="AIZ12" s="0"/>
+      <c r="AJA12" s="0"/>
+      <c r="AJB12" s="0"/>
+      <c r="AJC12" s="0"/>
+      <c r="AJD12" s="0"/>
+      <c r="AJE12" s="0"/>
+      <c r="AJF12" s="0"/>
+      <c r="AJG12" s="0"/>
+      <c r="AJH12" s="0"/>
+      <c r="AJI12" s="0"/>
+      <c r="AJJ12" s="0"/>
+      <c r="AJK12" s="0"/>
+      <c r="AJL12" s="0"/>
+      <c r="AJM12" s="0"/>
+      <c r="AJN12" s="0"/>
+      <c r="AJO12" s="0"/>
+      <c r="AJP12" s="0"/>
+      <c r="AJQ12" s="0"/>
+      <c r="AJR12" s="0"/>
+      <c r="AJS12" s="0"/>
+      <c r="AJT12" s="0"/>
+      <c r="AJU12" s="0"/>
+      <c r="AJV12" s="0"/>
+      <c r="AJW12" s="0"/>
+      <c r="AJX12" s="0"/>
+      <c r="AJY12" s="0"/>
+      <c r="AJZ12" s="0"/>
+      <c r="AKA12" s="0"/>
+      <c r="AKB12" s="0"/>
+      <c r="AKC12" s="0"/>
+      <c r="AKD12" s="0"/>
+      <c r="AKE12" s="0"/>
+      <c r="AKF12" s="0"/>
+      <c r="AKG12" s="0"/>
+      <c r="AKH12" s="0"/>
+      <c r="AKI12" s="0"/>
+      <c r="AKJ12" s="0"/>
+      <c r="AKK12" s="0"/>
+      <c r="AKL12" s="0"/>
+      <c r="AKM12" s="0"/>
+      <c r="AKN12" s="0"/>
+      <c r="AKO12" s="0"/>
+      <c r="AKP12" s="0"/>
+      <c r="AKQ12" s="0"/>
+      <c r="AKR12" s="0"/>
+      <c r="AKS12" s="0"/>
+      <c r="AKT12" s="0"/>
+      <c r="AKU12" s="0"/>
+      <c r="AKV12" s="0"/>
+      <c r="AKW12" s="0"/>
+      <c r="AKX12" s="0"/>
+      <c r="AKY12" s="0"/>
+      <c r="AKZ12" s="0"/>
+      <c r="ALA12" s="0"/>
+      <c r="ALB12" s="0"/>
+      <c r="ALC12" s="0"/>
+      <c r="ALD12" s="0"/>
+      <c r="ALE12" s="0"/>
+      <c r="ALF12" s="0"/>
+      <c r="ALG12" s="0"/>
+      <c r="ALH12" s="0"/>
+      <c r="ALI12" s="0"/>
+      <c r="ALJ12" s="0"/>
+      <c r="ALK12" s="0"/>
+      <c r="ALL12" s="0"/>
+      <c r="ALM12" s="0"/>
+      <c r="ALN12" s="0"/>
+      <c r="ALO12" s="0"/>
+      <c r="ALP12" s="0"/>
+      <c r="ALQ12" s="0"/>
+      <c r="ALR12" s="0"/>
+      <c r="ALS12" s="0"/>
+      <c r="ALT12" s="0"/>
+      <c r="ALU12" s="0"/>
+      <c r="ALV12" s="0"/>
+      <c r="ALW12" s="0"/>
+      <c r="ALX12" s="0"/>
+      <c r="ALY12" s="0"/>
+      <c r="ALZ12" s="0"/>
+      <c r="AMA12" s="0"/>
+      <c r="AMB12" s="0"/>
+      <c r="AMC12" s="0"/>
+      <c r="AMD12" s="0"/>
+      <c r="AME12" s="0"/>
+      <c r="AMF12" s="0"/>
+      <c r="AMG12" s="0"/>
+      <c r="AMH12" s="0"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="86" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="89" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
       <c r="L13" s="0"/>
@@ -18903,33 +19465,8 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
@@ -19947,33 +20484,8 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="92" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>212</v>
-      </c>
-      <c r="F15" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
@@ -20991,33 +21503,8 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C16" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
       <c r="J16" s="0"/>
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
@@ -22035,33 +22522,8 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="88" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="92" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
       <c r="J17" s="0"/>
       <c r="K17" s="0"/>
       <c r="L17" s="0"/>
@@ -23079,33 +23541,8 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>217</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
       <c r="J18" s="0"/>
       <c r="K18" s="0"/>
       <c r="L18" s="0"/>
@@ -24123,33 +24560,8 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>220</v>
-      </c>
-      <c r="F19" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
       <c r="J19" s="0"/>
       <c r="K19" s="0"/>
       <c r="L19" s="0"/>
@@ -25167,33 +25579,8 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="C20" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
       <c r="L20" s="0"/>
@@ -26211,33 +26598,8 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
       <c r="J21" s="0"/>
       <c r="K21" s="0"/>
       <c r="L21" s="0"/>
@@ -27255,33 +27617,8 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="92" t="s">
-        <v>225</v>
-      </c>
-      <c r="E22" s="92" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
       <c r="J22" s="0"/>
       <c r="K22" s="0"/>
       <c r="L22" s="0"/>
@@ -28299,33 +28636,8 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="92" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H23" s="88"/>
+      <c r="I23" s="88"/>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
       <c r="L23" s="0"/>
@@ -29343,33 +29655,8 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C24" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="E24" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="F24" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
       <c r="J24" s="0"/>
       <c r="K24" s="0"/>
       <c r="L24" s="0"/>
@@ -30387,33 +30674,8 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="92" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="92" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="92" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="92" t="s">
-        <v>232</v>
-      </c>
-      <c r="F25" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
       <c r="J25" s="0"/>
       <c r="K25" s="0"/>
       <c r="L25" s="0"/>
@@ -31430,121 +31692,42 @@
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
-    <row r="26" s="94" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="93" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>234</v>
-      </c>
-      <c r="F26" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="91" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="88" t="s">
-        <v>190</v>
-      </c>
-      <c r="E27" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="90" t="n">
-        <v>0</v>
-      </c>
+    <row r="26" s="89" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+    </row>
+    <row r="27" s="87" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" s="84" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="92" t="s">
-        <v>235</v>
-      </c>
-      <c r="E28" s="95" t="s">
-        <v>236</v>
-      </c>
-      <c r="F28" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="82"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="92" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="95" t="s">
-        <v>197</v>
-      </c>
-      <c r="F29" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="0"/>
       <c r="K29" s="0"/>
       <c r="L29" s="0"/>
@@ -32562,33 +32745,8 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="E30" s="95" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="0"/>
       <c r="K30" s="0"/>
       <c r="L30" s="0"/>
@@ -33605,655 +33763,144 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="94" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="92" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="90" t="n">
-        <v>0</v>
-      </c>
+    <row r="31" s="89" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D32" s="92" t="s">
-        <v>204</v>
-      </c>
-      <c r="E32" s="95" t="s">
-        <v>205</v>
-      </c>
-      <c r="F32" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" s="91"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="K32" s="87"/>
     </row>
     <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" s="92" t="s">
-        <v>241</v>
-      </c>
-      <c r="E33" s="95" t="s">
-        <v>242</v>
-      </c>
-      <c r="F33" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" s="91"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="K33" s="87"/>
     </row>
     <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="96" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="91"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="K34" s="87"/>
     </row>
     <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="92" t="s">
-        <v>243</v>
-      </c>
-      <c r="E35" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="98"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="K35" s="90"/>
     </row>
     <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="92" t="s">
-        <v>207</v>
-      </c>
-      <c r="E36" s="92" t="s">
-        <v>208</v>
-      </c>
-      <c r="F36" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
     </row>
     <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C37" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="92" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="92" t="s">
-        <v>246</v>
-      </c>
-      <c r="F37" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C38" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="92" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="92" t="s">
-        <v>214</v>
-      </c>
-      <c r="F38" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="92" t="s">
-        <v>247</v>
-      </c>
-      <c r="E39" s="92" t="s">
-        <v>248</v>
-      </c>
-      <c r="F39" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B40" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C40" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="92" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="92" t="s">
-        <v>224</v>
-      </c>
-      <c r="F40" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="92" t="s">
-        <v>249</v>
-      </c>
-      <c r="E41" s="92" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
     </row>
     <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C42" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="92" t="s">
-        <v>229</v>
-      </c>
-      <c r="E42" s="92" t="s">
-        <v>230</v>
-      </c>
-      <c r="F42" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
     </row>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" s="93" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="92" t="s">
-        <v>251</v>
-      </c>
-      <c r="E43" s="92" t="s">
-        <v>252</v>
-      </c>
-      <c r="F43" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H43" s="88"/>
+      <c r="I43" s="88"/>
     </row>
     <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="93" t="s">
-        <v>14</v>
-      </c>
-      <c r="B44" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="92" t="s">
-        <v>253</v>
-      </c>
-      <c r="E44" s="92" t="s">
-        <v>254</v>
-      </c>
-      <c r="F44" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="93" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" s="90" t="n">
-        <v>0</v>
-      </c>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
     </row>
     <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
     </row>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
     </row>
     <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H48" s="90"/>
-      <c r="I48" s="90"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
     </row>
     <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
     </row>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
+      <c r="H55" s="88"/>
+      <c r="I55" s="88"/>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H56" s="90"/>
-      <c r="I56" s="90"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="88"/>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
+      <c r="H57" s="91"/>
+      <c r="I57" s="91"/>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
+      <c r="H58" s="91"/>
+      <c r="I58" s="91"/>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H59" s="90"/>
-      <c r="I59" s="90"/>
+      <c r="H59" s="91"/>
+      <c r="I59" s="91"/>
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H60" s="90"/>
-      <c r="I60" s="90"/>
+      <c r="H60" s="91"/>
+      <c r="I60" s="91"/>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H61" s="90"/>
-      <c r="I61" s="90"/>
+      <c r="H61" s="91"/>
+      <c r="I61" s="91"/>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-    </row>
-    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H66" s="90"/>
-      <c r="I66" s="90"/>
-    </row>
-    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H67" s="90"/>
-      <c r="I67" s="90"/>
-    </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-    </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H69" s="90"/>
-      <c r="I69" s="90"/>
-    </row>
-    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H70" s="90"/>
-      <c r="I70" s="90"/>
-    </row>
-    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H71" s="90"/>
-      <c r="I71" s="90"/>
-    </row>
-    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H73" s="90"/>
-      <c r="I73" s="90"/>
-    </row>
-    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
-    </row>
-    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-    </row>
-    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H76" s="90"/>
-      <c r="I76" s="90"/>
-    </row>
-    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H77" s="90"/>
-      <c r="I77" s="90"/>
-    </row>
-    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H78" s="90"/>
-      <c r="I78" s="90"/>
-    </row>
-    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H79" s="90"/>
-      <c r="I79" s="90"/>
-    </row>
-    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H80" s="99"/>
-      <c r="I80" s="99"/>
-    </row>
-    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H81" s="90"/>
-      <c r="I81" s="90"/>
-    </row>
-    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H82" s="90"/>
-      <c r="I82" s="90"/>
-    </row>
-    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-    </row>
-    <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H84" s="90"/>
-      <c r="I84" s="90"/>
-    </row>
-    <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H85" s="90"/>
-      <c r="I85" s="90"/>
-    </row>
-    <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-    </row>
-    <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H87" s="90"/>
-      <c r="I87" s="90"/>
-    </row>
-    <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-    </row>
-    <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H89" s="90"/>
-      <c r="I89" s="90"/>
-    </row>
-    <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H90" s="90"/>
-      <c r="I90" s="90"/>
-    </row>
-    <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H91" s="90"/>
-      <c r="I91" s="90"/>
-    </row>
-    <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H92" s="99"/>
-      <c r="I92" s="99"/>
-    </row>
-    <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H93" s="90"/>
-      <c r="I93" s="90"/>
-    </row>
-    <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-    </row>
-    <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-    </row>
-    <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H96" s="90"/>
-      <c r="I96" s="90"/>
-    </row>
-    <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H97" s="90"/>
-      <c r="I97" s="90"/>
-    </row>
-    <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H98" s="90"/>
-      <c r="I98" s="90"/>
-    </row>
-    <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H99" s="100"/>
-      <c r="I99" s="100"/>
-    </row>
-    <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H100" s="100"/>
-      <c r="I100" s="100"/>
-    </row>
-    <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-    </row>
-    <row r="102" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-    </row>
-    <row r="103" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H103" s="100"/>
-      <c r="I103" s="100"/>
-    </row>
-    <row r="104" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -34277,21 +33924,21 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="49.8097165991903"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="50.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="60" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="60" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="24.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="61" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="61" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -34338,2965 +33985,2965 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="103" t="n">
+      <c r="C3" s="94" t="n">
         <v>9300655603016</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="106" t="n">
+      <c r="F3" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="103" t="n">
+      <c r="C4" s="94" t="n">
         <v>9300655603023</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="104" t="s">
+      <c r="E4" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="105" t="n">
+      <c r="F4" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G4" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="106" t="n">
+      <c r="G4" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="103" t="n">
+      <c r="C5" s="94" t="n">
         <v>9319733003488</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="107" t="n">
+      <c r="F5" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G5" s="104" t="n">
+      <c r="G5" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H5" s="106" t="n">
+      <c r="H5" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="106" t="n">
+      <c r="I5" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="101" t="s">
+      <c r="A6" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="103" t="n">
+      <c r="C6" s="94" t="n">
         <v>9319733003495</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="104" t="s">
+      <c r="E6" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="105" t="n">
+      <c r="F6" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G6" s="106" t="n">
+      <c r="G6" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="106" t="n">
+      <c r="H6" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="106" t="n">
+      <c r="I6" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="103" t="n">
+      <c r="C7" s="94" t="n">
         <v>9300655003298</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="104" t="s">
+      <c r="E7" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="105" t="n">
+      <c r="F7" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G7" s="104" t="n">
+      <c r="G7" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H7" s="106" t="n">
+      <c r="H7" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="106" t="n">
+      <c r="I7" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="103" t="n">
+      <c r="C8" s="94" t="n">
         <v>9300655059240</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="104" t="s">
+      <c r="E8" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="105" t="n">
+      <c r="F8" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G8" s="104" t="n">
+      <c r="G8" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H8" s="106" t="n">
+      <c r="H8" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="106" t="n">
+      <c r="I8" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="101" t="s">
+      <c r="A9" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="103" t="n">
+      <c r="C9" s="94" t="n">
         <v>9319733003273</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="104" t="n">
+      <c r="F9" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="106" t="n">
+      <c r="H9" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="103" t="n">
+      <c r="C10" s="94" t="n">
         <v>9319733003280</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="D10" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="104" t="s">
+      <c r="E10" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="105" t="n">
+      <c r="F10" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G10" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="106" t="n">
+      <c r="G10" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="B11" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="103" t="n">
+      <c r="C11" s="94" t="n">
         <v>9300655122548</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="105" t="n">
+      <c r="F11" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="104" t="n">
+      <c r="G11" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H11" s="106" t="n">
+      <c r="H11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I11" s="106" t="n">
+      <c r="I11" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="103" t="n">
+      <c r="C12" s="94" t="n">
         <v>9300655056812</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="104" t="s">
+      <c r="E12" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="105" t="n">
+      <c r="F12" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G12" s="104" t="n">
+      <c r="G12" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H12" s="106" t="n">
+      <c r="H12" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I12" s="106" t="n">
+      <c r="I12" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="101" t="s">
+      <c r="A13" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="109" t="n">
+      <c r="C13" s="100" t="n">
         <v>9319733003303</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="106" t="s">
-        <v>255</v>
-      </c>
-      <c r="F13" s="107" t="n">
+      <c r="E13" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G13" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="106" t="n">
+      <c r="G13" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="101" t="s">
+      <c r="A14" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="103" t="n">
+      <c r="C14" s="94" t="n">
         <v>9310717300029</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="104" t="s">
+      <c r="E14" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="105" t="n">
+      <c r="F14" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G14" s="104" t="n">
+      <c r="G14" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H14" s="106" t="n">
+      <c r="H14" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I14" s="106" t="n">
+      <c r="I14" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="103" t="n">
+      <c r="C15" s="94" t="n">
         <v>9310717300012</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="104" t="s">
+      <c r="E15" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="105" t="n">
+      <c r="F15" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="104" t="n">
+      <c r="G15" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H15" s="106" t="n">
+      <c r="H15" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="106" t="n">
+      <c r="I15" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="103" t="n">
+      <c r="C16" s="94" t="n">
         <v>9310717300005</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="D16" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="104" t="s">
+      <c r="E16" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="105" t="n">
+      <c r="F16" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G16" s="104" t="n">
+      <c r="G16" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H16" s="106" t="n">
+      <c r="H16" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="106" t="n">
+      <c r="I16" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="103" t="n">
+      <c r="C17" s="94" t="n">
         <v>9310717300142</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="104" t="s">
+      <c r="E17" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="105" t="n">
+      <c r="F17" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G17" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="106" t="n">
+      <c r="G17" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="103" t="n">
+      <c r="C18" s="94" t="n">
         <v>9310717300395</v>
       </c>
-      <c r="D18" s="102" t="s">
+      <c r="D18" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="105" t="n">
+      <c r="F18" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="104" t="n">
+      <c r="G18" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="106" t="n">
+      <c r="H18" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="106" t="n">
+      <c r="I18" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="103" t="n">
+      <c r="C19" s="94" t="n">
         <v>9310717300173</v>
       </c>
-      <c r="D19" s="102" t="s">
+      <c r="D19" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="105" t="n">
+      <c r="F19" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G19" s="104" t="n">
+      <c r="G19" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H19" s="106" t="n">
+      <c r="H19" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I19" s="106" t="n">
+      <c r="I19" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="103" t="n">
+      <c r="C20" s="94" t="n">
         <v>9310717001865</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="105" t="n">
+      <c r="F20" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G20" s="106" t="n">
+      <c r="G20" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="H20" s="106" t="n">
+      <c r="H20" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="106" t="n">
+      <c r="I20" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="102" t="s">
+      <c r="B21" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="103" t="n">
+      <c r="C21" s="94" t="n">
         <v>9300705605182</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="104" t="s">
+      <c r="E21" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="105" t="n">
+      <c r="F21" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G21" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="106" t="n">
+      <c r="G21" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="103" t="n">
+      <c r="C22" s="94" t="n">
         <v>9300705602648</v>
       </c>
-      <c r="D22" s="102" t="s">
+      <c r="D22" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F22" s="105" t="n">
+      <c r="F22" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G22" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="106" t="n">
+      <c r="G22" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="103" t="n">
+      <c r="C23" s="94" t="n">
         <v>9300705031455</v>
       </c>
-      <c r="D23" s="102" t="s">
+      <c r="D23" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="104" t="s">
+      <c r="E23" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="104" t="n">
+      <c r="F23" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="106" t="n">
+      <c r="H23" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="101" t="s">
+      <c r="A24" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="103" t="n">
+      <c r="C24" s="94" t="n">
         <v>9300705604826</v>
       </c>
-      <c r="D24" s="102" t="s">
+      <c r="D24" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="105" t="n">
+      <c r="F24" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G24" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="106" t="n">
+      <c r="G24" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="101" t="s">
+      <c r="A25" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="103" t="n">
+      <c r="C25" s="94" t="n">
         <v>9300705602662</v>
       </c>
-      <c r="D25" s="102" t="s">
+      <c r="D25" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F25" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="106" t="n">
+      <c r="F25" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="103" t="n">
+      <c r="C26" s="94" t="n">
         <v>9300705603706</v>
       </c>
-      <c r="D26" s="102" t="s">
+      <c r="D26" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="104" t="n">
+      <c r="F26" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H26" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" s="106" t="n">
+      <c r="H26" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="103" t="n">
+      <c r="C27" s="94" t="n">
         <v>9300705604819</v>
       </c>
-      <c r="D27" s="102" t="s">
+      <c r="D27" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="105" t="n">
+      <c r="F27" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G27" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="106" t="n">
+      <c r="G27" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="103" t="n">
+      <c r="C28" s="94" t="n">
         <v>9300705604833</v>
       </c>
-      <c r="D28" s="102" t="s">
+      <c r="D28" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="105" t="n">
+      <c r="F28" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G28" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="106" t="n">
+      <c r="G28" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="103" t="n">
+      <c r="C29" s="94" t="n">
         <v>9300705601788</v>
       </c>
-      <c r="D29" s="102" t="s">
+      <c r="D29" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="105" t="n">
+      <c r="F29" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G29" s="104" t="n">
+      <c r="G29" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H29" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="106" t="n">
+      <c r="H29" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="93" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="103" t="n">
+      <c r="C30" s="94" t="n">
         <v>9300705603072</v>
       </c>
-      <c r="D30" s="102" t="s">
+      <c r="D30" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="105" t="n">
+      <c r="F30" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G30" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" s="106" t="n">
+      <c r="G30" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="103" t="n">
+      <c r="C31" s="94" t="n">
         <v>9300705602693</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="104" t="s">
+      <c r="E31" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" s="106" t="n">
+      <c r="F31" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="102" t="s">
+      <c r="B32" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="103" t="n">
+      <c r="C32" s="94" t="n">
         <v>9300705605632</v>
       </c>
-      <c r="D32" s="102" t="s">
+      <c r="D32" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="105" t="n">
+      <c r="F32" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G32" s="104" t="n">
+      <c r="G32" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" s="106" t="n">
+      <c r="H32" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="101" t="s">
+      <c r="A33" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="102" t="s">
+      <c r="B33" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="103" t="n">
+      <c r="C33" s="94" t="n">
         <v>9300705605670</v>
       </c>
-      <c r="D33" s="102" t="s">
+      <c r="D33" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E33" s="104" t="s">
+      <c r="E33" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F33" s="105" t="n">
+      <c r="F33" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G33" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" s="106" t="n">
+      <c r="G33" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="101" t="s">
+      <c r="A34" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="102" t="s">
+      <c r="B34" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C34" s="103" t="n">
+      <c r="C34" s="94" t="n">
         <v>9300705605618</v>
       </c>
-      <c r="D34" s="102" t="s">
+      <c r="D34" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="104" t="s">
+      <c r="E34" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F34" s="105" t="n">
+      <c r="F34" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G34" s="104" t="n">
+      <c r="G34" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H34" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" s="106" t="n">
+      <c r="H34" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="101" t="s">
+      <c r="A35" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="102" t="s">
+      <c r="B35" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="103" t="n">
+      <c r="C35" s="94" t="n">
         <v>9300705605687</v>
       </c>
-      <c r="D35" s="102" t="s">
+      <c r="D35" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="105" t="n">
+      <c r="F35" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="106" t="n">
+      <c r="G35" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="102" t="s">
+      <c r="B36" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C36" s="103" t="n">
+      <c r="C36" s="94" t="n">
         <v>9300705605625</v>
       </c>
-      <c r="D36" s="102" t="s">
+      <c r="D36" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="104" t="s">
+      <c r="E36" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F36" s="105" t="n">
+      <c r="F36" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G36" s="104" t="n">
+      <c r="G36" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H36" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" s="106" t="n">
+      <c r="H36" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="102" t="s">
+      <c r="B37" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="103" t="n">
+      <c r="C37" s="94" t="n">
         <v>9300705032308</v>
       </c>
-      <c r="D37" s="102" t="s">
+      <c r="D37" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="105" t="n">
+      <c r="F37" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G37" s="104" t="n">
+      <c r="G37" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H37" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" s="106" t="n">
+      <c r="H37" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="101" t="s">
+      <c r="A38" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="103" t="n">
+      <c r="C38" s="94" t="n">
         <v>9300705605335</v>
       </c>
-      <c r="D38" s="102" t="s">
+      <c r="D38" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E38" s="104" t="s">
+      <c r="E38" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F38" s="105" t="n">
+      <c r="F38" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G38" s="104" t="n">
+      <c r="G38" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H38" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" s="106" t="n">
+      <c r="H38" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="101" t="s">
+      <c r="A39" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="102" t="s">
+      <c r="B39" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="103" t="n">
+      <c r="C39" s="94" t="n">
         <v>9300705605397</v>
       </c>
-      <c r="D39" s="102" t="s">
+      <c r="D39" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="E39" s="104" t="s">
+      <c r="E39" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F39" s="105" t="n">
+      <c r="F39" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G39" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" s="106" t="n">
+      <c r="G39" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="102" t="s">
+      <c r="B40" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="103" t="n">
+      <c r="C40" s="94" t="n">
         <v>9310717300067</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E40" s="104" t="s">
+      <c r="E40" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F40" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="104" t="n">
+      <c r="F40" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H40" s="106" t="n">
+      <c r="H40" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I40" s="106" t="n">
+      <c r="I40" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="101" t="s">
+      <c r="A41" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="102" t="s">
+      <c r="B41" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="103" t="n">
+      <c r="C41" s="94" t="n">
         <v>9310717300241</v>
       </c>
-      <c r="D41" s="102" t="s">
+      <c r="D41" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="104" t="s">
+      <c r="E41" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="105" t="n">
+      <c r="F41" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G41" s="104" t="n">
+      <c r="G41" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H41" s="106" t="n">
+      <c r="H41" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I41" s="106" t="n">
+      <c r="I41" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="101" t="s">
+      <c r="A42" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="102" t="s">
+      <c r="B42" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="103" t="n">
+      <c r="C42" s="94" t="n">
         <v>9310717300234</v>
       </c>
-      <c r="D42" s="102" t="s">
+      <c r="D42" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E42" s="104" t="s">
+      <c r="E42" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F42" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="104" t="n">
+      <c r="F42" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H42" s="106" t="n">
+      <c r="H42" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I42" s="106" t="n">
+      <c r="I42" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="101" t="s">
+      <c r="A43" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="103" t="n">
+      <c r="C43" s="94" t="n">
         <v>9310717300258</v>
       </c>
-      <c r="D43" s="102" t="s">
+      <c r="D43" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E43" s="104" t="s">
+      <c r="E43" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="105" t="n">
+      <c r="F43" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G43" s="104" t="n">
+      <c r="G43" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H43" s="106" t="n">
+      <c r="H43" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I43" s="106" t="n">
+      <c r="I43" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B44" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="103" t="n">
+      <c r="C44" s="94" t="n">
         <v>9319733003761</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D44" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="104" t="s">
+      <c r="E44" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="105" t="n">
+      <c r="F44" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="104" t="n">
+      <c r="G44" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H44" s="106" t="n">
+      <c r="H44" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I44" s="106" t="n">
+      <c r="I44" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="109" t="n">
+      <c r="C45" s="100" t="n">
         <v>9319733003778</v>
       </c>
-      <c r="D45" s="108" t="s">
+      <c r="D45" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" s="106" t="n">
+      <c r="F45" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="101" t="s">
+      <c r="A46" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B46" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="103" t="n">
+      <c r="C46" s="94" t="n">
         <v>9316090018834</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D46" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="104" t="s">
+      <c r="E46" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F46" s="105" t="n">
+      <c r="F46" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G46" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" s="106" t="n">
+      <c r="G46" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="103" t="n">
+      <c r="C47" s="94" t="n">
         <v>9316090019220</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="104" t="s">
+      <c r="E47" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="105" t="n">
+      <c r="F47" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" s="106" t="n">
+      <c r="G47" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="101" t="s">
+      <c r="A48" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="103" t="n">
+      <c r="C48" s="94" t="n">
         <v>9316090016175</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="104" t="s">
+      <c r="E48" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="104" t="n">
+      <c r="F48" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H48" s="106" t="n">
+      <c r="H48" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I48" s="106" t="n">
+      <c r="I48" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="101" t="s">
+      <c r="A49" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="103" t="n">
+      <c r="C49" s="94" t="n">
         <v>9316090018759</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E49" s="104" t="s">
+      <c r="E49" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="105" t="n">
+      <c r="F49" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G49" s="104" t="n">
+      <c r="G49" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H49" s="106" t="n">
+      <c r="H49" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I49" s="106" t="n">
+      <c r="I49" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="101" t="s">
+      <c r="A50" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="103" t="n">
+      <c r="C50" s="94" t="n">
         <v>9316090017387</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E50" s="104" t="s">
+      <c r="E50" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="105" t="n">
+      <c r="F50" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G50" s="104" t="n">
+      <c r="G50" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H50" s="106" t="n">
+      <c r="H50" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I50" s="106" t="n">
+      <c r="I50" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="101" t="s">
+      <c r="A51" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="103" t="n">
+      <c r="C51" s="94" t="n">
         <v>9316090019237</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="104" t="s">
+      <c r="E51" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="105" t="n">
+      <c r="F51" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G51" s="104" t="n">
+      <c r="G51" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H51" s="106" t="n">
+      <c r="H51" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I51" s="106" t="n">
+      <c r="I51" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="C52" s="103" t="n">
+      <c r="C52" s="94" t="n">
         <v>9316090019206</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E52" s="104" t="s">
+      <c r="E52" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F52" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="104" t="n">
+      <c r="F52" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H52" s="106" t="n">
+      <c r="H52" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I52" s="106" t="n">
+      <c r="I52" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="101" t="s">
+      <c r="A53" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="103" t="n">
+      <c r="C53" s="94" t="n">
         <v>9316090019213</v>
       </c>
-      <c r="D53" s="102" t="s">
+      <c r="D53" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="104" t="s">
+      <c r="E53" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F53" s="105" t="n">
+      <c r="F53" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G53" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" s="106" t="n">
+      <c r="G53" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="101" t="s">
+      <c r="A54" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="103" t="n">
+      <c r="C54" s="94" t="n">
         <v>9316090019190</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="104" t="s">
+      <c r="E54" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F54" s="105" t="n">
+      <c r="F54" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G54" s="104" t="n">
+      <c r="G54" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H54" s="106" t="n">
+      <c r="H54" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I54" s="106" t="n">
+      <c r="I54" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="101" t="s">
+      <c r="A55" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="103" t="n">
+      <c r="C55" s="94" t="n">
         <v>9316090018544</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E55" s="104" t="s">
+      <c r="E55" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="105" t="n">
+      <c r="F55" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G55" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="106" t="n">
+      <c r="G55" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="101" t="s">
+      <c r="A56" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="103" t="n">
+      <c r="C56" s="94" t="n">
         <v>9316090018469</v>
       </c>
-      <c r="D56" s="102" t="s">
+      <c r="D56" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E56" s="104" t="s">
+      <c r="E56" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F56" s="105" t="n">
+      <c r="F56" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G56" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" s="106" t="n">
+      <c r="G56" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="101" t="s">
+      <c r="A57" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="103" t="n">
+      <c r="C57" s="94" t="n">
         <v>9316090015864</v>
       </c>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="104" t="s">
+      <c r="E57" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F57" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" s="104" t="n">
+      <c r="F57" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H57" s="106" t="n">
+      <c r="H57" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I57" s="106" t="n">
+      <c r="I57" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="101" t="s">
+      <c r="A58" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="102" t="s">
+      <c r="B58" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="103" t="n">
+      <c r="C58" s="94" t="n">
         <v>9316090016878</v>
       </c>
-      <c r="D58" s="102" t="s">
+      <c r="D58" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="104" t="s">
+      <c r="E58" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F58" s="105" t="n">
+      <c r="F58" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G58" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="106" t="n">
+      <c r="G58" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B59" s="102" t="s">
+      <c r="B59" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="C59" s="103" t="n">
+      <c r="C59" s="94" t="n">
         <v>9316090060901</v>
       </c>
-      <c r="D59" s="102" t="s">
+      <c r="D59" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F59" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="104" t="n">
+      <c r="F59" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H59" s="106" t="n">
+      <c r="H59" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I59" s="106" t="n">
+      <c r="I59" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="102" t="s">
+      <c r="B60" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="103" t="n">
+      <c r="C60" s="94" t="n">
         <v>9316090017707</v>
       </c>
-      <c r="D60" s="102" t="s">
+      <c r="D60" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F60" s="105" t="n">
+      <c r="F60" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="106" t="n">
+      <c r="G60" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="101" t="s">
+      <c r="A61" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B61" s="102" t="s">
+      <c r="B61" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="103" t="n">
+      <c r="C61" s="94" t="n">
         <v>9316090016236</v>
       </c>
-      <c r="D61" s="102" t="s">
+      <c r="D61" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="104" t="s">
+      <c r="E61" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F61" s="105" t="n">
+      <c r="F61" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G61" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="106" t="n">
+      <c r="G61" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="102" t="s">
+      <c r="B62" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="103" t="n">
+      <c r="C62" s="94" t="n">
         <v>9316090015284</v>
       </c>
-      <c r="D62" s="102" t="s">
+      <c r="D62" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E62" s="104" t="s">
+      <c r="E62" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="105" t="n">
+      <c r="F62" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G62" s="104" t="n">
+      <c r="G62" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H62" s="106" t="n">
+      <c r="H62" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I62" s="106" t="n">
+      <c r="I62" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="101" t="s">
+      <c r="A63" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B63" s="102" t="s">
+      <c r="B63" s="93" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="103" t="n">
+      <c r="C63" s="94" t="n">
         <v>9316090293606</v>
       </c>
-      <c r="D63" s="102" t="s">
+      <c r="D63" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="104" t="s">
+      <c r="E63" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="F63" s="105" t="n">
+      <c r="F63" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G63" s="104" t="n">
+      <c r="G63" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H63" s="106" t="n">
+      <c r="H63" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I63" s="106" t="n">
+      <c r="I63" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="101" t="s">
+      <c r="A64" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="103" t="n">
+      <c r="C64" s="94" t="n">
         <v>9316090019169</v>
       </c>
-      <c r="D64" s="102" t="s">
+      <c r="D64" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="104" t="n">
+      <c r="F64" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H64" s="106" t="n">
+      <c r="H64" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I64" s="106" t="n">
+      <c r="I64" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="101" t="s">
+      <c r="A65" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="103" t="n">
+      <c r="C65" s="94" t="n">
         <v>9316090017004</v>
       </c>
-      <c r="D65" s="102" t="s">
+      <c r="D65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="104" t="s">
+      <c r="E65" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F65" s="105" t="n">
+      <c r="F65" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G65" s="104" t="n">
+      <c r="G65" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H65" s="106" t="n">
+      <c r="H65" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I65" s="106" t="n">
+      <c r="I65" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="101" t="s">
+      <c r="A66" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="C66" s="103" t="n">
+      <c r="C66" s="94" t="n">
         <v>9316090016755</v>
       </c>
-      <c r="D66" s="102" t="s">
+      <c r="D66" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E66" s="104" t="s">
+      <c r="E66" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="104" t="n">
+      <c r="F66" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H66" s="106" t="n">
+      <c r="H66" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I66" s="106" t="n">
+      <c r="I66" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="101" t="s">
+      <c r="A67" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="103" t="n">
+      <c r="C67" s="94" t="n">
         <v>9316090016786</v>
       </c>
-      <c r="D67" s="102" t="s">
+      <c r="D67" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E67" s="104" t="s">
+      <c r="E67" s="95" t="s">
         <v>66</v>
       </c>
-      <c r="F67" s="105" t="n">
+      <c r="F67" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G67" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" s="106" t="n">
+      <c r="G67" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="102" t="s">
+      <c r="B68" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="C68" s="103" t="n">
+      <c r="C68" s="94" t="n">
         <v>9316090019084</v>
       </c>
-      <c r="D68" s="102" t="s">
+      <c r="D68" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E68" s="104" t="s">
+      <c r="E68" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F68" s="105" t="n">
+      <c r="F68" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G68" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" s="106" t="n">
+      <c r="G68" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="101" t="s">
+      <c r="A69" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="102" t="s">
+      <c r="B69" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="C69" s="103" t="n">
+      <c r="C69" s="94" t="n">
         <v>9316090019107</v>
       </c>
-      <c r="D69" s="102" t="s">
+      <c r="D69" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="104" t="s">
+      <c r="E69" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F69" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G69" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" s="106" t="n">
+      <c r="F69" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="101" t="s">
+      <c r="A70" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B70" s="102" t="s">
+      <c r="B70" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="103" t="n">
+      <c r="C70" s="94" t="n">
         <v>9316090023906</v>
       </c>
-      <c r="D70" s="102" t="s">
+      <c r="D70" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="104" t="s">
+      <c r="E70" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F70" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="104" t="n">
+      <c r="F70" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H70" s="106" t="n">
+      <c r="H70" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I70" s="106" t="n">
+      <c r="I70" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="101" t="s">
+      <c r="A71" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="C71" s="109" t="n">
+      <c r="C71" s="100" t="n">
         <v>9316090019077</v>
       </c>
-      <c r="D71" s="108" t="s">
+      <c r="D71" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E71" s="106" t="s">
+      <c r="E71" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="F71" s="107" t="n">
+      <c r="F71" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G71" s="106" t="n">
+      <c r="G71" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="H71" s="106" t="n">
+      <c r="H71" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I71" s="106" t="n">
+      <c r="I71" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="101" t="s">
+      <c r="A72" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="109" t="n">
+      <c r="C72" s="100" t="n">
         <v>9316090038603</v>
       </c>
-      <c r="D72" s="108" t="s">
+      <c r="D72" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="106" t="s">
+      <c r="E72" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F72" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="106" t="n">
+      <c r="F72" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="H72" s="106" t="n">
+      <c r="H72" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I72" s="106" t="n">
+      <c r="I72" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="108" t="s">
+      <c r="B73" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="109" t="n">
+      <c r="C73" s="100" t="n">
         <v>9316090019008</v>
       </c>
-      <c r="D73" s="108" t="s">
+      <c r="D73" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E73" s="106" t="s">
+      <c r="E73" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F73" s="107" t="n">
+      <c r="F73" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G73" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" s="106" t="n">
+      <c r="G73" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="101" t="s">
+      <c r="A74" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="109" t="n">
+      <c r="C74" s="100" t="n">
         <v>9316090019114</v>
       </c>
-      <c r="D74" s="108" t="s">
+      <c r="D74" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="106" t="s">
+      <c r="E74" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="107" t="n">
+      <c r="F74" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G74" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="106" t="n">
+      <c r="G74" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="101" t="s">
+      <c r="A75" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="99" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="109" t="n">
+      <c r="C75" s="100" t="n">
         <v>9316090071006</v>
       </c>
-      <c r="D75" s="108" t="s">
+      <c r="D75" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E75" s="106" t="s">
-        <v>256</v>
-      </c>
-      <c r="F75" s="107" t="n">
+      <c r="E75" s="97" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G75" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="106" t="n">
+      <c r="G75" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="101" t="s">
+      <c r="A76" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="108" t="s">
+      <c r="B76" s="99" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="109" t="n">
+      <c r="C76" s="100" t="n">
         <v>9316090024057</v>
       </c>
-      <c r="D76" s="108" t="s">
+      <c r="D76" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="E76" s="106" t="s">
+      <c r="E76" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F76" s="107" t="n">
+      <c r="F76" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G76" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="106" t="n">
+      <c r="G76" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="102" t="s">
+      <c r="B77" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C77" s="103" t="n">
+      <c r="C77" s="94" t="n">
         <v>9316090019121</v>
       </c>
-      <c r="D77" s="102" t="s">
+      <c r="D77" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="E77" s="104" t="s">
+      <c r="E77" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="F77" s="107" t="n">
+      <c r="F77" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G77" s="104" t="n">
+      <c r="G77" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H77" s="106" t="n">
+      <c r="H77" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I77" s="106" t="n">
+      <c r="I77" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="101" t="s">
+      <c r="A78" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="102" t="s">
+      <c r="B78" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="C78" s="103" t="n">
+      <c r="C78" s="94" t="n">
         <v>9316090503002</v>
       </c>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E78" s="104" t="s">
+      <c r="E78" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F78" s="105" t="n">
+      <c r="F78" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G78" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="106" t="n">
+      <c r="G78" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="101" t="s">
+      <c r="A79" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="102" t="s">
+      <c r="B79" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="C79" s="103" t="n">
+      <c r="C79" s="94" t="n">
         <v>9316090504306</v>
       </c>
-      <c r="D79" s="102" t="s">
+      <c r="D79" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E79" s="104" t="s">
+      <c r="E79" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F79" s="105" t="n">
+      <c r="F79" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G79" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="106" t="n">
+      <c r="G79" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="101" t="s">
+      <c r="A80" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="108" t="s">
+      <c r="B80" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="C80" s="109" t="n">
+      <c r="C80" s="100" t="n">
         <v>9316090504504</v>
       </c>
-      <c r="D80" s="108" t="s">
+      <c r="D80" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="E80" s="106" t="s">
+      <c r="E80" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F80" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="106" t="n">
+      <c r="F80" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="101" t="s">
+      <c r="A81" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="102" t="s">
+      <c r="B81" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="103" t="n">
+      <c r="C81" s="94" t="n">
         <v>9316090503606</v>
       </c>
-      <c r="D81" s="102" t="s">
+      <c r="D81" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E81" s="104" t="s">
+      <c r="E81" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F81" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="106" t="n">
+      <c r="F81" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="C82" s="103" t="n">
+      <c r="C82" s="94" t="n">
         <v>9316090505105</v>
       </c>
-      <c r="D82" s="102" t="s">
+      <c r="D82" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E82" s="104" t="s">
+      <c r="E82" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F82" s="105" t="n">
+      <c r="F82" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="106" t="n">
+      <c r="G82" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="H82" s="106" t="n">
+      <c r="H82" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I82" s="106" t="n">
+      <c r="I82" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="101" t="s">
+      <c r="A83" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="C83" s="103" t="n">
+      <c r="C83" s="94" t="n">
         <v>9316090500506</v>
       </c>
-      <c r="D83" s="102" t="s">
+      <c r="D83" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E83" s="104" t="s">
+      <c r="E83" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F83" s="105" t="n">
+      <c r="F83" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G83" s="104" t="n">
+      <c r="G83" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H83" s="106" t="n">
+      <c r="H83" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I83" s="106" t="n">
+      <c r="I83" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="101" t="s">
+      <c r="A84" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="C84" s="103" t="n">
+      <c r="C84" s="94" t="n">
         <v>9316090500605</v>
       </c>
-      <c r="D84" s="102" t="s">
+      <c r="D84" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E84" s="104" t="s">
+      <c r="E84" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F84" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G84" s="104" t="n">
+      <c r="F84" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H84" s="106" t="n">
+      <c r="H84" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I84" s="106" t="n">
+      <c r="I84" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="101" t="s">
+      <c r="A85" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="102" t="s">
+      <c r="B85" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="C85" s="103" t="n">
+      <c r="C85" s="94" t="n">
         <v>9316090502906</v>
       </c>
-      <c r="D85" s="102" t="s">
+      <c r="D85" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E85" s="104" t="s">
+      <c r="E85" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F85" s="105" t="n">
+      <c r="F85" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G85" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H85" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" s="106" t="n">
+      <c r="G85" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="101" t="s">
+      <c r="A86" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="102" t="s">
+      <c r="B86" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C86" s="103" t="n">
+      <c r="C86" s="94" t="n">
         <v>9316090502104</v>
       </c>
-      <c r="D86" s="102" t="s">
+      <c r="D86" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E86" s="104" t="s">
+      <c r="E86" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F86" s="105" t="n">
+      <c r="F86" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G86" s="104" t="n">
+      <c r="G86" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H86" s="106" t="n">
+      <c r="H86" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I86" s="106" t="n">
+      <c r="I86" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="101" t="s">
+      <c r="A87" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B87" s="102" t="s">
+      <c r="B87" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="C87" s="103" t="n">
+      <c r="C87" s="94" t="n">
         <v>9316090500209</v>
       </c>
-      <c r="D87" s="102" t="s">
+      <c r="D87" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E87" s="104" t="s">
+      <c r="E87" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F87" s="105" t="n">
+      <c r="F87" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G87" s="104" t="n">
+      <c r="G87" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H87" s="106" t="n">
+      <c r="H87" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I87" s="106" t="n">
+      <c r="I87" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="101" t="s">
+      <c r="A88" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B88" s="102" t="s">
+      <c r="B88" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="C88" s="103" t="n">
+      <c r="C88" s="94" t="n">
         <v>9316090500308</v>
       </c>
-      <c r="D88" s="102" t="s">
+      <c r="D88" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E88" s="104" t="s">
+      <c r="E88" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F88" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G88" s="104" t="n">
+      <c r="F88" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H88" s="106" t="n">
+      <c r="H88" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I88" s="106" t="n">
+      <c r="I88" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="101" t="s">
+      <c r="A89" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="102" t="s">
+      <c r="B89" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="103" t="n">
+      <c r="C89" s="94" t="n">
         <v>9316090500100</v>
       </c>
-      <c r="D89" s="102" t="s">
+      <c r="D89" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="E89" s="104" t="s">
+      <c r="E89" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="F89" s="105" t="n">
+      <c r="F89" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G89" s="104" t="n">
+      <c r="G89" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H89" s="106" t="n">
+      <c r="H89" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I89" s="106" t="n">
+      <c r="I89" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="101" t="s">
+      <c r="A90" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="C90" s="109" t="n">
+      <c r="C90" s="100" t="n">
         <v>9316090506003</v>
       </c>
-      <c r="D90" s="108" t="s">
+      <c r="D90" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="E90" s="106" t="s">
+      <c r="E90" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F90" s="107" t="n">
+      <c r="F90" s="98" t="n">
         <v>2</v>
       </c>
-      <c r="G90" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H90" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" s="106" t="n">
+      <c r="G90" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="101" t="s">
+      <c r="A91" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B91" s="102" t="s">
+      <c r="B91" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="C91" s="103" t="n">
+      <c r="C91" s="94" t="n">
         <v>9321547144110</v>
       </c>
-      <c r="D91" s="102" t="s">
+      <c r="D91" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E91" s="104" t="s">
+      <c r="E91" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="105" t="n">
+      <c r="F91" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G91" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" s="106" t="n">
+      <c r="G91" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="101" t="s">
+      <c r="A92" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="109" t="n">
+      <c r="C92" s="100" t="n">
         <v>9319733003044</v>
       </c>
-      <c r="D92" s="108" t="s">
+      <c r="D92" s="99" t="s">
         <v>138</v>
       </c>
-      <c r="E92" s="106" t="s">
+      <c r="E92" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G92" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H92" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" s="106" t="n">
+      <c r="F92" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="101" t="s">
+      <c r="A93" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="102" t="s">
+      <c r="B93" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C93" s="103" t="n">
+      <c r="C93" s="94" t="n">
         <v>9321547136023</v>
       </c>
-      <c r="D93" s="102" t="s">
+      <c r="D93" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E93" s="104" t="s">
+      <c r="E93" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F93" s="105" t="n">
+      <c r="F93" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G93" s="104" t="n">
+      <c r="G93" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H93" s="106" t="n">
+      <c r="H93" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I93" s="106" t="n">
+      <c r="I93" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="101" t="s">
+      <c r="A94" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B94" s="102" t="s">
+      <c r="B94" s="93" t="s">
         <v>141</v>
       </c>
-      <c r="C94" s="103" t="n">
+      <c r="C94" s="94" t="n">
         <v>9321547146213</v>
       </c>
-      <c r="D94" s="102" t="s">
+      <c r="D94" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E94" s="104" t="s">
+      <c r="E94" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="105" t="n">
+      <c r="F94" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G94" s="104" t="n">
+      <c r="G94" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H94" s="106" t="n">
+      <c r="H94" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I94" s="106" t="n">
+      <c r="I94" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="101" t="s">
+      <c r="A95" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B95" s="102" t="s">
+      <c r="B95" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="C95" s="103" t="n">
+      <c r="C95" s="94" t="n">
         <v>9319733002290</v>
       </c>
-      <c r="D95" s="102" t="s">
+      <c r="D95" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="104" t="s">
+      <c r="E95" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F95" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G95" s="104" t="n">
+      <c r="F95" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" s="95" t="n">
         <v>2</v>
       </c>
-      <c r="H95" s="106" t="n">
+      <c r="H95" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="I95" s="106" t="n">
+      <c r="I95" s="97" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="101" t="s">
+      <c r="A96" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="102" t="s">
+      <c r="B96" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="103" t="n">
+      <c r="C96" s="94" t="n">
         <v>9319733002337</v>
       </c>
-      <c r="D96" s="102" t="s">
+      <c r="D96" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E96" s="104" t="s">
+      <c r="E96" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F96" s="105" t="n">
+      <c r="F96" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G96" s="104" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="106" t="n">
+      <c r="G96" s="95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" s="97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="101" t="s">
+      <c r="A97" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="102" t="s">
+      <c r="B97" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="C97" s="103" t="n">
+      <c r="C97" s="94" t="n">
         <v>9321547904431</v>
       </c>
-      <c r="D97" s="102" t="s">
+      <c r="D97" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E97" s="104" t="s">
+      <c r="E97" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F97" s="105" t="n">
-        <v>0</v>
-      </c>
-      <c r="G97" s="104" t="n">
+      <c r="F97" s="96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H97" s="106" t="n">
+      <c r="H97" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I97" s="106" t="n">
+      <c r="I97" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="101" t="s">
+      <c r="A98" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="102" t="s">
+      <c r="B98" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="C98" s="103" t="n">
+      <c r="C98" s="94" t="n">
         <v>9319733001958</v>
       </c>
-      <c r="D98" s="102" t="s">
+      <c r="D98" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E98" s="104" t="s">
+      <c r="E98" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="F98" s="105" t="n">
+      <c r="F98" s="96" t="n">
         <v>2</v>
       </c>
-      <c r="G98" s="104" t="n">
+      <c r="G98" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="H98" s="106" t="n">
+      <c r="H98" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="I98" s="106" t="n">
+      <c r="I98" s="97" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="110" t="s">
+      <c r="A99" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B99" s="108" t="s">
+      <c r="B99" s="99" t="s">
         <v>135</v>
       </c>
-      <c r="C99" s="109" t="n">
+      <c r="C99" s="100" t="n">
         <v>9316090500308</v>
       </c>
-      <c r="D99" s="108" t="s">
+      <c r="D99" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="E99" s="106" t="s">
+      <c r="E99" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F99" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G99" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H99" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" s="107" t="n">
+      <c r="F99" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="110" t="s">
+      <c r="A100" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="108" t="s">
+      <c r="B100" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="C100" s="109" t="n">
+      <c r="C100" s="100" t="n">
         <v>9316090500605</v>
       </c>
-      <c r="D100" s="108" t="s">
+      <c r="D100" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="106" t="s">
+      <c r="E100" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="F100" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G100" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H100" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" s="107" t="n">
+      <c r="F100" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="110" t="s">
+      <c r="A101" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="C101" s="109" t="n">
+      <c r="C101" s="100" t="n">
         <v>9319733003044</v>
       </c>
-      <c r="D101" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="E101" s="106" t="s">
+      <c r="D101" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="E101" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F101" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G101" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H101" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" s="107" t="n">
+      <c r="F101" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="110" t="s">
+      <c r="A102" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="C102" s="109" t="n">
+      <c r="C102" s="100" t="n">
         <v>9321547146213</v>
       </c>
-      <c r="D102" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="E102" s="106" t="s">
+      <c r="D102" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="E102" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F102" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G102" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H102" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" s="107" t="n">
+      <c r="F102" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="110" t="s">
+      <c r="A103" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="99" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="109" t="n">
+      <c r="C103" s="100" t="n">
         <v>9319733002290</v>
       </c>
-      <c r="D103" s="108" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" s="106" t="s">
+      <c r="D103" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="E103" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="F103" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G103" s="106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H103" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="107" t="n">
+      <c r="F103" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" s="97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" s="98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="110" t="s">
+      <c r="A104" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B104" s="108" t="s">
+      <c r="B104" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="109" t="n">
+      <c r="C104" s="100" t="n">
         <v>9319733003761</v>
       </c>
-      <c r="D104" s="108" t="s">
+      <c r="D104" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="E104" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="F104" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G104" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H104" s="107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="107" t="n">
+      <c r="E104" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="F104" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" s="98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" s="98" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I104"/>
+  <autoFilter ref="A2:I102"/>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
   </mergeCells>

--- a/Projects/SANOFIAU/Data/Template.xlsx
+++ b/Projects/SANOFIAU/Data/Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,24 +17,26 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$1:$G$97</definedName>
-    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">MSL!$A$1:$G$97</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Primary_Brand_Blocking!$A$2:$H$2</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$104</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'Primary&amp;Secondary_Facings'!$A$2:$I$102</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2025,17 +2027,17 @@
   </sheetPr>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="11.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="9.10526315789474"/>
   </cols>
@@ -2294,17 +2296,17 @@
   </sheetPr>
   <dimension ref="A1:I97"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J92" activeCellId="0" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="11" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="66.1983805668016"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="12" width="66.8421052631579"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="12" width="12.6396761133603"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="12" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="12" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="12" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="12" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="9.10526315789474"/>
@@ -4460,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="H75" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4579,7 +4581,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4663,10 +4665,10 @@
         <v>1</v>
       </c>
       <c r="H82" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5074,7 @@
         <v>1</v>
       </c>
       <c r="I96" s="27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,19 +5130,19 @@
   </sheetPr>
   <dimension ref="1:94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="26.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="58.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="41" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="41" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="41" width="59.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="41" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="41" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="42" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="42" width="16.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="42" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -15996,17 +15998,17 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="60" width="7.92712550607287"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="60" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="60" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="60" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="5.1417004048583"/>
@@ -16252,7 +16254,7 @@
   </sheetPr>
   <dimension ref="1:62"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -16260,13 +16262,13 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="82" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="82" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="82" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="82" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="82" width="66.6275303643725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="82" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="82" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="82" width="67.2712550607288"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="82" width="5.1417004048583"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="82" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="83" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="83" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="83" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -17427,6 +17429,13 @@
       <c r="I11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0"/>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="G12" s="0"/>
       <c r="H12" s="88"/>
       <c r="I12" s="88"/>
       <c r="J12" s="0"/>
@@ -18446,6 +18455,13 @@
       <c r="AMJ12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
       <c r="H13" s="88"/>
       <c r="I13" s="88"/>
       <c r="J13" s="0"/>
@@ -19465,6 +19481,13 @@
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
       <c r="H14" s="88"/>
       <c r="I14" s="88"/>
       <c r="J14" s="0"/>
@@ -20484,6 +20507,13 @@
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
       <c r="H15" s="88"/>
       <c r="I15" s="88"/>
       <c r="J15" s="0"/>
@@ -21503,6 +21533,13 @@
       <c r="AMJ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
       <c r="H16" s="88"/>
       <c r="I16" s="88"/>
       <c r="J16" s="0"/>
@@ -22522,6 +22559,13 @@
       <c r="AMJ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
       <c r="H17" s="88"/>
       <c r="I17" s="88"/>
       <c r="J17" s="0"/>
@@ -23541,6 +23585,13 @@
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
       <c r="H18" s="88"/>
       <c r="I18" s="88"/>
       <c r="J18" s="0"/>
@@ -24560,6 +24611,13 @@
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
       <c r="H19" s="88"/>
       <c r="I19" s="88"/>
       <c r="J19" s="0"/>
@@ -25579,6 +25637,13 @@
       <c r="AMJ19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
       <c r="H20" s="88"/>
       <c r="I20" s="88"/>
       <c r="J20" s="0"/>
@@ -26598,6 +26663,13 @@
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
       <c r="H21" s="88"/>
       <c r="I21" s="88"/>
       <c r="J21" s="0"/>
@@ -27617,6 +27689,13 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
       <c r="H22" s="88"/>
       <c r="I22" s="88"/>
       <c r="J22" s="0"/>
@@ -28636,6 +28715,13 @@
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
       <c r="H23" s="88"/>
       <c r="I23" s="88"/>
       <c r="J23" s="0"/>
@@ -29655,6 +29741,13 @@
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
       <c r="H24" s="88"/>
       <c r="I24" s="88"/>
       <c r="J24" s="0"/>
@@ -30674,6 +30767,13 @@
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
       <c r="H25" s="88"/>
       <c r="I25" s="88"/>
       <c r="J25" s="0"/>
@@ -31726,6 +31826,13 @@
       <c r="I28" s="88"/>
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
       <c r="H29" s="88"/>
       <c r="I29" s="88"/>
       <c r="J29" s="0"/>
@@ -32745,6 +32852,13 @@
       <c r="AMJ29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+      <c r="G30" s="0"/>
       <c r="H30" s="88"/>
       <c r="I30" s="88"/>
       <c r="J30" s="0"/>
@@ -33924,21 +34038,21 @@
   </sheetPr>
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G35" activeCellId="0" sqref="G35"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C91" activeCellId="0" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="50.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="60" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="60" width="50.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="60" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="60" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="60" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="60" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="60" width="24.6356275303644"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="61" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="61" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="61" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -34065,7 +34179,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="97" t="n">
         <v>0</v>
@@ -34239,10 +34353,10 @@
         <v>2</v>
       </c>
       <c r="H11" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34268,10 +34382,10 @@
         <v>2</v>
       </c>
       <c r="H12" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34326,10 +34440,10 @@
         <v>2</v>
       </c>
       <c r="H14" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34442,10 +34556,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -34471,10 +34585,10 @@
         <v>2</v>
       </c>
       <c r="H19" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35138,10 +35252,10 @@
         <v>2</v>
       </c>
       <c r="H42" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35167,10 +35281,10 @@
         <v>2</v>
       </c>
       <c r="H43" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35196,7 +35310,7 @@
         <v>2</v>
       </c>
       <c r="H44" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="97" t="n">
         <v>0</v>
@@ -35312,10 +35426,10 @@
         <v>2</v>
       </c>
       <c r="H48" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35341,10 +35455,10 @@
         <v>2</v>
       </c>
       <c r="H49" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35370,10 +35484,10 @@
         <v>2</v>
       </c>
       <c r="H50" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35399,10 +35513,10 @@
         <v>2</v>
       </c>
       <c r="H51" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35428,10 +35542,10 @@
         <v>2</v>
       </c>
       <c r="H52" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35573,10 +35687,10 @@
         <v>2</v>
       </c>
       <c r="H57" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35747,10 +35861,10 @@
         <v>2</v>
       </c>
       <c r="H63" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35776,10 +35890,10 @@
         <v>2</v>
       </c>
       <c r="H64" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35805,10 +35919,10 @@
         <v>2</v>
       </c>
       <c r="H65" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35834,10 +35948,10 @@
         <v>2</v>
       </c>
       <c r="H66" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35950,10 +36064,10 @@
         <v>2</v>
       </c>
       <c r="H70" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -35979,10 +36093,10 @@
         <v>2</v>
       </c>
       <c r="H71" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36008,10 +36122,10 @@
         <v>2</v>
       </c>
       <c r="H72" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36153,10 +36267,10 @@
         <v>2</v>
       </c>
       <c r="H77" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36298,10 +36412,10 @@
         <v>1</v>
       </c>
       <c r="H82" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36327,10 +36441,10 @@
         <v>2</v>
       </c>
       <c r="H83" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36356,10 +36470,10 @@
         <v>2</v>
       </c>
       <c r="H84" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36414,10 +36528,10 @@
         <v>2</v>
       </c>
       <c r="H86" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" s="97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36443,10 +36557,10 @@
         <v>2</v>
       </c>
       <c r="H87" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36472,10 +36586,10 @@
         <v>2</v>
       </c>
       <c r="H88" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36501,10 +36615,10 @@
         <v>1</v>
       </c>
       <c r="H89" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36617,10 +36731,10 @@
         <v>2</v>
       </c>
       <c r="H93" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36646,10 +36760,10 @@
         <v>2</v>
       </c>
       <c r="H94" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36675,10 +36789,10 @@
         <v>2</v>
       </c>
       <c r="H95" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" s="97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36736,7 +36850,7 @@
         <v>1</v>
       </c>
       <c r="I97" s="97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -36943,7 +37057,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I102"/>
+  <autoFilter ref="A2:I104"/>
   <mergeCells count="1">
     <mergeCell ref="F1:I1"/>
   </mergeCells>
